--- a/Excel_profile_templates/Profile Template - CC List.xlsx
+++ b/Excel_profile_templates/Profile Template - CC List.xlsx
@@ -12,27 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="136">
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Select</t>
-  </si>
-  <si>
     <t>Card.</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Not Used</t>
   </si>
   <si>
     <t>Conformance</t>
@@ -96,7 +96,7 @@
   </si>
   <si>
     <t>Language of the resource content
-Binding (extensible): A human language. ( http://hl7.org/fhir/stu3/valueset-languages.html )</t>
+Binding (extensible): A human language. [Common Languages](http://hl7.org/fhir/stu3/valueset-languages.html)</t>
   </si>
   <si>
     <t>- text</t>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>usual : official : temp : secondary (If known)
-Binding (required): Identifies the purpose for this identifier, if known . ( http://hl7.org/fhir/stu3/valueset-identifier-use.html )</t>
+Binding (required): Identifies the purpose for this identifier, if known. [IdentifierUse](http://hl7.org/fhir/stu3/valueset-identifier-use.html)</t>
   </si>
   <si>
     <t>- - type</t>
@@ -170,7 +170,7 @@
   </si>
   <si>
     <t>Description of identifier
-Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. ( http://hl7.org/fhir/stu3/valueset-identifier-type.html )</t>
+Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. [Identifier Type Codes](http://hl7.org/fhir/stu3/valueset-identifier-type.html)</t>
   </si>
   <si>
     <t>- - - coding</t>
@@ -293,14 +293,14 @@
   </si>
   <si>
     <t>current : retired : entered-in-error
-Binding (required): The current state of the list ( http://hl7.org/fhir/stu3/valueset-list-status.html )</t>
+Binding (required): The current state of the list [ListStatus](http://hl7.org/fhir/stu3/valueset-list-status.html)</t>
   </si>
   <si>
     <t>- mode</t>
   </si>
   <si>
     <t>working : snapshot : changes
-Binding (required): The processing mode that applies to this list ( http://hl7.org/fhir/stu3/valueset-list-mode.html )</t>
+Binding (required): The processing mode that applies to this list [ListMode](http://hl7.org/fhir/stu3/valueset-list-mode.html)</t>
   </si>
   <si>
     <t>- title</t>
@@ -313,7 +313,7 @@
   </si>
   <si>
     <t>What the purpose of this list is
-Binding (preferred): What the purpose of a list is ( https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ListCode-1 )</t>
+Binding (preferred): What the purpose of a list is [CareConnect-ListCode-1](https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ListCode-1)</t>
   </si>
   <si>
     <t>- - coding</t>
@@ -374,7 +374,7 @@
   </si>
   <si>
     <t>What order the list has
-Binding (preferred): What order applies to the items in a list ( http://hl7.org/fhir/stu3/valueset-list-order.html)</t>
+Binding (preferred): What order applies to the items in a list [List Order Codes](http://hl7.org/fhir/stu3/valueset-list-order.html)</t>
   </si>
   <si>
     <t>- note</t>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>- - author[x]</t>
-  </si>
-  <si>
-    <t>Reference | String</t>
   </si>
   <si>
     <t>Individual responsible for the annotation
@@ -425,7 +422,7 @@
   </si>
   <si>
     <t>Status/Workflow information about this item
-Binding (example): Codes that provide further information about the reason and meaning of the item in the list ( http://hl7.org/fhir/stu3/valueset-list-item-flag.html )</t>
+Binding (example): Codes that provide further information about the reason and meaning of the item in the list [Patient Medicine Change Types](http://hl7.org/fhir/stu3/valueset-list-item-flag.html)</t>
   </si>
   <si>
     <t>- - deleted</t>
@@ -452,26 +449,26 @@
   </si>
   <si>
     <t>Why list is empty
-Binding (preferred): If a list is empty, why it is empty ( https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ListEmptyReasonCode-1 )</t>
+Binding (preferred): If a list is empty, why it is empty [CareConnect-ListEmptyReasonCode-1](https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ListEmptyReasonCode-1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <sz val="8.0"/>
       <color rgb="FF333333"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
-    <font/>
     <font>
       <b/>
       <sz val="8.0"/>
@@ -506,13 +503,6 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="8.0"/>
-      <color rgb="FF474747"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
-    </font>
-    <font>
       <u/>
       <sz val="8.0"/>
       <color rgb="FF005EB8"/>
@@ -537,7 +527,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,12 +546,6 @@
         <bgColor rgb="FFF4C7C3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -569,17 +553,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -612,25 +596,19 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -673,11 +651,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>7</v>
@@ -710,7 +688,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>15</v>
@@ -727,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>18</v>
@@ -744,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>21</v>
@@ -761,12 +739,12 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -778,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>27</v>
@@ -795,7 +773,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>31</v>
@@ -812,13 +790,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ClinicalSetting-1","Extension-CareConnect-ClinicalSetting-1")</f>
         <v>Extension-CareConnect-ClinicalSetting-1</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -830,13 +808,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ListWarningCode-1","Extension-CareConnect-ListWarningCode-1")</f>
         <v>Extension-CareConnect-ListWarningCode-1</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -848,7 +826,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>38</v>
@@ -865,7 +843,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>41</v>
@@ -882,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>24</v>
@@ -899,12 +877,12 @@
         <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -916,7 +894,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>49</v>
@@ -933,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>21</v>
@@ -950,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>54</v>
@@ -967,7 +945,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>24</v>
@@ -984,7 +962,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>54</v>
@@ -1001,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>61</v>
@@ -1018,7 +996,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>54</v>
@@ -1035,7 +1013,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>21</v>
@@ -1052,7 +1030,7 @@
         <v>66</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>54</v>
@@ -1069,7 +1047,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>71</v>
@@ -1086,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>74</v>
@@ -1103,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>74</v>
@@ -1119,10 +1097,10 @@
       <c r="B27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="16" t="str">
+      <c r="C27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1133,10 +1111,10 @@
     <row r="28">
       <c r="A28" s="9"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="16" t="str">
+      <c r="C28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
@@ -1150,7 +1128,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>54</v>
@@ -1167,7 +1145,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>41</v>
@@ -1184,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>54</v>
@@ -1201,12 +1179,12 @@
         <v>66</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1218,7 +1196,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>24</v>
@@ -1235,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>54</v>
@@ -1252,12 +1230,12 @@
         <v>14</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1269,7 +1247,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>49</v>
@@ -1286,7 +1264,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>21</v>
@@ -1303,7 +1281,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>54</v>
@@ -1320,7 +1298,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>24</v>
@@ -1337,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>54</v>
@@ -1354,7 +1332,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>61</v>
@@ -1371,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>54</v>
@@ -1388,9 +1366,9 @@
         <v>14</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1401,10 +1379,10 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="16" t="str">
+      <c r="C44" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/STU3/group.html","Group")</f>
         <v>Group</v>
       </c>
@@ -1414,9 +1392,9 @@
       <c r="A45" s="9"/>
       <c r="B45" s="6"/>
       <c r="C45" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Device","Device")</f>
         <v>Device</v>
       </c>
@@ -1425,10 +1403,10 @@
     <row r="46">
       <c r="A46" s="9"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="16" t="str">
+      <c r="C46" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
         <v>CareConnect-Patient-1</v>
       </c>
@@ -1437,10 +1415,10 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="16" t="str">
+      <c r="C47" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1","CareConnect-Location-1")</f>
         <v>CareConnect-Location-1</v>
       </c>
@@ -1454,7 +1432,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>54</v>
@@ -1471,7 +1449,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>41</v>
@@ -1488,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>54</v>
@@ -1505,9 +1483,9 @@
         <v>14</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="D51" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1518,10 +1496,10 @@
     <row r="52">
       <c r="A52" s="9"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="16" t="str">
+      <c r="C52" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1","CareConnect-Encounter-1")</f>
         <v>CareConnect-Encounter-1</v>
       </c>
@@ -1535,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>54</v>
@@ -1552,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>41</v>
@@ -1569,7 +1547,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>54</v>
@@ -1586,7 +1564,7 @@
         <v>14</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>74</v>
@@ -1603,9 +1581,9 @@
         <v>14</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="D57" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1617,9 +1595,9 @@
       <c r="A58" s="9"/>
       <c r="B58" s="6"/>
       <c r="C58" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="D58" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Device","Device")</f>
         <v>Device</v>
       </c>
@@ -1628,10 +1606,10 @@
     <row r="59">
       <c r="A59" s="9"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="16" t="str">
+      <c r="C59" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
         <v>CareConnect-Patient-1</v>
       </c>
@@ -1640,10 +1618,10 @@
     <row r="60">
       <c r="A60" s="9"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="16" t="str">
+      <c r="C60" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
         <v>CareConnect-Practitioner-1</v>
       </c>
@@ -1657,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>54</v>
@@ -1674,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>41</v>
@@ -1691,7 +1669,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>54</v>
@@ -1708,12 +1686,12 @@
         <v>14</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1725,7 +1703,7 @@
         <v>30</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>49</v>
@@ -1742,7 +1720,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>21</v>
@@ -1759,7 +1737,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>54</v>
@@ -1776,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>24</v>
@@ -1793,7 +1771,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>54</v>
@@ -1810,7 +1788,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>61</v>
@@ -1827,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>54</v>
@@ -1844,7 +1822,7 @@
         <v>30</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>114</v>
@@ -1861,22 +1839,23 @@
         <v>14</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="16" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
+        <v>Reference</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="16" t="str">
+      <c r="C74" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
         <v>RelatedPerson</v>
       </c>
@@ -1885,10 +1864,10 @@
     <row r="75">
       <c r="A75" s="9"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="16" t="str">
+      <c r="C75" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
         <v>CareConnect-Patient-1</v>
       </c>
@@ -1897,3208 +1876,3219 @@
     <row r="76">
       <c r="A76" s="9"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="16" t="str">
+      <c r="C76" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
         <v>CareConnect-Practitioner-1</v>
       </c>
       <c r="E76" s="8"/>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A77" s="9"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>120</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E77" s="8"/>
     </row>
     <row r="78">
       <c r="A78" s="9" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>128</v>
+        <v>38</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="17" t="str">
+      <c r="C92" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="9"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="17" t="str">
+      <c r="E92" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Resource","Resource")</f>
         <v>Resource</v>
       </c>
-      <c r="E92" s="8"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="E93" s="8"/>
     </row>
     <row r="94">
       <c r="A94" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>136</v>
+        <v>54</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="9" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="11" t="s">
+      <c r="B104" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E104" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="20"/>
-    </row>
     <row r="105">
-      <c r="A105" s="20"/>
+      <c r="A105" s="18"/>
     </row>
     <row r="106">
-      <c r="A106" s="20"/>
+      <c r="A106" s="18"/>
     </row>
     <row r="107">
-      <c r="A107" s="20"/>
+      <c r="A107" s="18"/>
     </row>
     <row r="108">
-      <c r="A108" s="20"/>
+      <c r="A108" s="18"/>
     </row>
     <row r="109">
-      <c r="A109" s="20"/>
+      <c r="A109" s="18"/>
     </row>
     <row r="110">
-      <c r="A110" s="20"/>
+      <c r="A110" s="18"/>
     </row>
     <row r="111">
-      <c r="A111" s="20"/>
+      <c r="A111" s="18"/>
     </row>
     <row r="112">
-      <c r="A112" s="20"/>
+      <c r="A112" s="18"/>
     </row>
     <row r="113">
-      <c r="A113" s="20"/>
+      <c r="A113" s="18"/>
     </row>
     <row r="114">
-      <c r="A114" s="20"/>
+      <c r="A114" s="18"/>
     </row>
     <row r="115">
-      <c r="A115" s="20"/>
+      <c r="A115" s="18"/>
     </row>
     <row r="116">
-      <c r="A116" s="20"/>
+      <c r="A116" s="18"/>
     </row>
     <row r="117">
-      <c r="A117" s="20"/>
+      <c r="A117" s="18"/>
     </row>
     <row r="118">
-      <c r="A118" s="20"/>
+      <c r="A118" s="18"/>
     </row>
     <row r="119">
-      <c r="A119" s="20"/>
+      <c r="A119" s="18"/>
     </row>
     <row r="120">
-      <c r="A120" s="20"/>
+      <c r="A120" s="18"/>
     </row>
     <row r="121">
-      <c r="A121" s="20"/>
+      <c r="A121" s="18"/>
     </row>
     <row r="122">
-      <c r="A122" s="20"/>
+      <c r="A122" s="18"/>
     </row>
     <row r="123">
-      <c r="A123" s="20"/>
+      <c r="A123" s="18"/>
     </row>
     <row r="124">
-      <c r="A124" s="20"/>
+      <c r="A124" s="18"/>
     </row>
     <row r="125">
-      <c r="A125" s="20"/>
+      <c r="A125" s="18"/>
     </row>
     <row r="126">
-      <c r="A126" s="20"/>
+      <c r="A126" s="18"/>
     </row>
     <row r="127">
-      <c r="A127" s="20"/>
+      <c r="A127" s="18"/>
     </row>
     <row r="128">
-      <c r="A128" s="20"/>
+      <c r="A128" s="18"/>
     </row>
     <row r="129">
-      <c r="A129" s="20"/>
+      <c r="A129" s="18"/>
     </row>
     <row r="130">
-      <c r="A130" s="20"/>
+      <c r="A130" s="18"/>
     </row>
     <row r="131">
-      <c r="A131" s="20"/>
+      <c r="A131" s="18"/>
     </row>
     <row r="132">
-      <c r="A132" s="20"/>
+      <c r="A132" s="18"/>
     </row>
     <row r="133">
-      <c r="A133" s="20"/>
+      <c r="A133" s="18"/>
     </row>
     <row r="134">
-      <c r="A134" s="20"/>
+      <c r="A134" s="18"/>
     </row>
     <row r="135">
-      <c r="A135" s="20"/>
+      <c r="A135" s="18"/>
     </row>
     <row r="136">
-      <c r="A136" s="20"/>
+      <c r="A136" s="18"/>
     </row>
     <row r="137">
-      <c r="A137" s="20"/>
+      <c r="A137" s="18"/>
     </row>
     <row r="138">
-      <c r="A138" s="20"/>
+      <c r="A138" s="18"/>
     </row>
     <row r="139">
-      <c r="A139" s="20"/>
+      <c r="A139" s="18"/>
     </row>
     <row r="140">
-      <c r="A140" s="20"/>
+      <c r="A140" s="18"/>
     </row>
     <row r="141">
-      <c r="A141" s="20"/>
+      <c r="A141" s="18"/>
     </row>
     <row r="142">
-      <c r="A142" s="20"/>
+      <c r="A142" s="18"/>
     </row>
     <row r="143">
-      <c r="A143" s="20"/>
+      <c r="A143" s="18"/>
     </row>
     <row r="144">
-      <c r="A144" s="20"/>
+      <c r="A144" s="18"/>
     </row>
     <row r="145">
-      <c r="A145" s="20"/>
+      <c r="A145" s="18"/>
     </row>
     <row r="146">
-      <c r="A146" s="20"/>
+      <c r="A146" s="18"/>
     </row>
     <row r="147">
-      <c r="A147" s="20"/>
+      <c r="A147" s="18"/>
     </row>
     <row r="148">
-      <c r="A148" s="20"/>
+      <c r="A148" s="18"/>
     </row>
     <row r="149">
-      <c r="A149" s="20"/>
+      <c r="A149" s="18"/>
     </row>
     <row r="150">
-      <c r="A150" s="20"/>
+      <c r="A150" s="18"/>
     </row>
     <row r="151">
-      <c r="A151" s="20"/>
+      <c r="A151" s="18"/>
     </row>
     <row r="152">
-      <c r="A152" s="20"/>
+      <c r="A152" s="18"/>
     </row>
     <row r="153">
-      <c r="A153" s="20"/>
+      <c r="A153" s="18"/>
     </row>
     <row r="154">
-      <c r="A154" s="20"/>
+      <c r="A154" s="18"/>
     </row>
     <row r="155">
-      <c r="A155" s="20"/>
+      <c r="A155" s="18"/>
     </row>
     <row r="156">
-      <c r="A156" s="20"/>
+      <c r="A156" s="18"/>
     </row>
     <row r="157">
-      <c r="A157" s="20"/>
+      <c r="A157" s="18"/>
     </row>
     <row r="158">
-      <c r="A158" s="20"/>
+      <c r="A158" s="18"/>
     </row>
     <row r="159">
-      <c r="A159" s="20"/>
+      <c r="A159" s="18"/>
     </row>
     <row r="160">
-      <c r="A160" s="20"/>
+      <c r="A160" s="18"/>
     </row>
     <row r="161">
-      <c r="A161" s="20"/>
+      <c r="A161" s="18"/>
     </row>
     <row r="162">
-      <c r="A162" s="20"/>
+      <c r="A162" s="18"/>
     </row>
     <row r="163">
-      <c r="A163" s="20"/>
+      <c r="A163" s="18"/>
     </row>
     <row r="164">
-      <c r="A164" s="20"/>
+      <c r="A164" s="18"/>
     </row>
     <row r="165">
-      <c r="A165" s="20"/>
+      <c r="A165" s="18"/>
     </row>
     <row r="166">
-      <c r="A166" s="20"/>
+      <c r="A166" s="18"/>
     </row>
     <row r="167">
-      <c r="A167" s="20"/>
+      <c r="A167" s="18"/>
     </row>
     <row r="168">
-      <c r="A168" s="20"/>
+      <c r="A168" s="18"/>
     </row>
     <row r="169">
-      <c r="A169" s="20"/>
+      <c r="A169" s="18"/>
     </row>
     <row r="170">
-      <c r="A170" s="20"/>
+      <c r="A170" s="18"/>
     </row>
     <row r="171">
-      <c r="A171" s="20"/>
+      <c r="A171" s="18"/>
     </row>
     <row r="172">
-      <c r="A172" s="20"/>
+      <c r="A172" s="18"/>
     </row>
     <row r="173">
-      <c r="A173" s="20"/>
+      <c r="A173" s="18"/>
     </row>
     <row r="174">
-      <c r="A174" s="20"/>
+      <c r="A174" s="18"/>
     </row>
     <row r="175">
-      <c r="A175" s="20"/>
+      <c r="A175" s="18"/>
     </row>
     <row r="176">
-      <c r="A176" s="20"/>
+      <c r="A176" s="18"/>
     </row>
     <row r="177">
-      <c r="A177" s="20"/>
+      <c r="A177" s="18"/>
     </row>
     <row r="178">
-      <c r="A178" s="20"/>
+      <c r="A178" s="18"/>
     </row>
     <row r="179">
-      <c r="A179" s="20"/>
+      <c r="A179" s="18"/>
     </row>
     <row r="180">
-      <c r="A180" s="20"/>
+      <c r="A180" s="18"/>
     </row>
     <row r="181">
-      <c r="A181" s="20"/>
+      <c r="A181" s="18"/>
     </row>
     <row r="182">
-      <c r="A182" s="20"/>
+      <c r="A182" s="18"/>
     </row>
     <row r="183">
-      <c r="A183" s="20"/>
+      <c r="A183" s="18"/>
     </row>
     <row r="184">
-      <c r="A184" s="20"/>
+      <c r="A184" s="18"/>
     </row>
     <row r="185">
-      <c r="A185" s="20"/>
+      <c r="A185" s="18"/>
     </row>
     <row r="186">
-      <c r="A186" s="20"/>
+      <c r="A186" s="18"/>
     </row>
     <row r="187">
-      <c r="A187" s="20"/>
+      <c r="A187" s="18"/>
     </row>
     <row r="188">
-      <c r="A188" s="20"/>
+      <c r="A188" s="18"/>
     </row>
     <row r="189">
-      <c r="A189" s="20"/>
+      <c r="A189" s="18"/>
     </row>
     <row r="190">
-      <c r="A190" s="20"/>
+      <c r="A190" s="18"/>
     </row>
     <row r="191">
-      <c r="A191" s="20"/>
+      <c r="A191" s="18"/>
     </row>
     <row r="192">
-      <c r="A192" s="20"/>
+      <c r="A192" s="18"/>
     </row>
     <row r="193">
-      <c r="A193" s="20"/>
+      <c r="A193" s="18"/>
     </row>
     <row r="194">
-      <c r="A194" s="20"/>
+      <c r="A194" s="18"/>
     </row>
     <row r="195">
-      <c r="A195" s="20"/>
+      <c r="A195" s="18"/>
     </row>
     <row r="196">
-      <c r="A196" s="20"/>
+      <c r="A196" s="18"/>
     </row>
     <row r="197">
-      <c r="A197" s="20"/>
+      <c r="A197" s="18"/>
     </row>
     <row r="198">
-      <c r="A198" s="20"/>
+      <c r="A198" s="18"/>
     </row>
     <row r="199">
-      <c r="A199" s="20"/>
+      <c r="A199" s="18"/>
     </row>
     <row r="200">
-      <c r="A200" s="20"/>
+      <c r="A200" s="18"/>
     </row>
     <row r="201">
-      <c r="A201" s="20"/>
+      <c r="A201" s="18"/>
     </row>
     <row r="202">
-      <c r="A202" s="20"/>
+      <c r="A202" s="18"/>
     </row>
     <row r="203">
-      <c r="A203" s="20"/>
+      <c r="A203" s="18"/>
     </row>
     <row r="204">
-      <c r="A204" s="20"/>
+      <c r="A204" s="18"/>
     </row>
     <row r="205">
-      <c r="A205" s="20"/>
+      <c r="A205" s="18"/>
     </row>
     <row r="206">
-      <c r="A206" s="20"/>
+      <c r="A206" s="18"/>
     </row>
     <row r="207">
-      <c r="A207" s="20"/>
+      <c r="A207" s="18"/>
     </row>
     <row r="208">
-      <c r="A208" s="20"/>
+      <c r="A208" s="18"/>
     </row>
     <row r="209">
-      <c r="A209" s="20"/>
+      <c r="A209" s="18"/>
     </row>
     <row r="210">
-      <c r="A210" s="20"/>
+      <c r="A210" s="18"/>
     </row>
     <row r="211">
-      <c r="A211" s="20"/>
+      <c r="A211" s="18"/>
     </row>
     <row r="212">
-      <c r="A212" s="20"/>
+      <c r="A212" s="18"/>
     </row>
     <row r="213">
-      <c r="A213" s="20"/>
+      <c r="A213" s="18"/>
     </row>
     <row r="214">
-      <c r="A214" s="20"/>
+      <c r="A214" s="18"/>
     </row>
     <row r="215">
-      <c r="A215" s="20"/>
+      <c r="A215" s="18"/>
     </row>
     <row r="216">
-      <c r="A216" s="20"/>
+      <c r="A216" s="18"/>
     </row>
     <row r="217">
-      <c r="A217" s="20"/>
+      <c r="A217" s="18"/>
     </row>
     <row r="218">
-      <c r="A218" s="20"/>
+      <c r="A218" s="18"/>
     </row>
     <row r="219">
-      <c r="A219" s="20"/>
+      <c r="A219" s="18"/>
     </row>
     <row r="220">
-      <c r="A220" s="20"/>
+      <c r="A220" s="18"/>
     </row>
     <row r="221">
-      <c r="A221" s="20"/>
+      <c r="A221" s="18"/>
     </row>
     <row r="222">
-      <c r="A222" s="20"/>
+      <c r="A222" s="18"/>
     </row>
     <row r="223">
-      <c r="A223" s="20"/>
+      <c r="A223" s="18"/>
     </row>
     <row r="224">
-      <c r="A224" s="20"/>
+      <c r="A224" s="18"/>
     </row>
     <row r="225">
-      <c r="A225" s="20"/>
+      <c r="A225" s="18"/>
     </row>
     <row r="226">
-      <c r="A226" s="20"/>
+      <c r="A226" s="18"/>
     </row>
     <row r="227">
-      <c r="A227" s="20"/>
+      <c r="A227" s="18"/>
     </row>
     <row r="228">
-      <c r="A228" s="20"/>
+      <c r="A228" s="18"/>
     </row>
     <row r="229">
-      <c r="A229" s="20"/>
+      <c r="A229" s="18"/>
     </row>
     <row r="230">
-      <c r="A230" s="20"/>
+      <c r="A230" s="18"/>
     </row>
     <row r="231">
-      <c r="A231" s="20"/>
+      <c r="A231" s="18"/>
     </row>
     <row r="232">
-      <c r="A232" s="20"/>
+      <c r="A232" s="18"/>
     </row>
     <row r="233">
-      <c r="A233" s="20"/>
+      <c r="A233" s="18"/>
     </row>
     <row r="234">
-      <c r="A234" s="20"/>
+      <c r="A234" s="18"/>
     </row>
     <row r="235">
-      <c r="A235" s="20"/>
+      <c r="A235" s="18"/>
     </row>
     <row r="236">
-      <c r="A236" s="20"/>
+      <c r="A236" s="18"/>
     </row>
     <row r="237">
-      <c r="A237" s="20"/>
+      <c r="A237" s="18"/>
     </row>
     <row r="238">
-      <c r="A238" s="20"/>
+      <c r="A238" s="18"/>
     </row>
     <row r="239">
-      <c r="A239" s="20"/>
+      <c r="A239" s="18"/>
     </row>
     <row r="240">
-      <c r="A240" s="20"/>
+      <c r="A240" s="18"/>
     </row>
     <row r="241">
-      <c r="A241" s="20"/>
+      <c r="A241" s="18"/>
     </row>
     <row r="242">
-      <c r="A242" s="20"/>
+      <c r="A242" s="18"/>
     </row>
     <row r="243">
-      <c r="A243" s="20"/>
+      <c r="A243" s="18"/>
     </row>
     <row r="244">
-      <c r="A244" s="20"/>
+      <c r="A244" s="18"/>
     </row>
     <row r="245">
-      <c r="A245" s="20"/>
+      <c r="A245" s="18"/>
     </row>
     <row r="246">
-      <c r="A246" s="20"/>
+      <c r="A246" s="18"/>
     </row>
     <row r="247">
-      <c r="A247" s="20"/>
+      <c r="A247" s="18"/>
     </row>
     <row r="248">
-      <c r="A248" s="20"/>
+      <c r="A248" s="18"/>
     </row>
     <row r="249">
-      <c r="A249" s="20"/>
+      <c r="A249" s="18"/>
     </row>
     <row r="250">
-      <c r="A250" s="20"/>
+      <c r="A250" s="18"/>
     </row>
     <row r="251">
-      <c r="A251" s="20"/>
+      <c r="A251" s="18"/>
     </row>
     <row r="252">
-      <c r="A252" s="20"/>
+      <c r="A252" s="18"/>
     </row>
     <row r="253">
-      <c r="A253" s="20"/>
+      <c r="A253" s="18"/>
     </row>
     <row r="254">
-      <c r="A254" s="20"/>
+      <c r="A254" s="18"/>
     </row>
     <row r="255">
-      <c r="A255" s="20"/>
+      <c r="A255" s="18"/>
     </row>
     <row r="256">
-      <c r="A256" s="20"/>
+      <c r="A256" s="18"/>
     </row>
     <row r="257">
-      <c r="A257" s="20"/>
+      <c r="A257" s="18"/>
     </row>
     <row r="258">
-      <c r="A258" s="20"/>
+      <c r="A258" s="18"/>
     </row>
     <row r="259">
-      <c r="A259" s="20"/>
+      <c r="A259" s="18"/>
     </row>
     <row r="260">
-      <c r="A260" s="20"/>
+      <c r="A260" s="18"/>
     </row>
     <row r="261">
-      <c r="A261" s="20"/>
+      <c r="A261" s="18"/>
     </row>
     <row r="262">
-      <c r="A262" s="20"/>
+      <c r="A262" s="18"/>
     </row>
     <row r="263">
-      <c r="A263" s="20"/>
+      <c r="A263" s="18"/>
     </row>
     <row r="264">
-      <c r="A264" s="20"/>
+      <c r="A264" s="18"/>
     </row>
     <row r="265">
-      <c r="A265" s="20"/>
+      <c r="A265" s="18"/>
     </row>
     <row r="266">
-      <c r="A266" s="20"/>
+      <c r="A266" s="18"/>
     </row>
     <row r="267">
-      <c r="A267" s="20"/>
+      <c r="A267" s="18"/>
     </row>
     <row r="268">
-      <c r="A268" s="20"/>
+      <c r="A268" s="18"/>
     </row>
     <row r="269">
-      <c r="A269" s="20"/>
+      <c r="A269" s="18"/>
     </row>
     <row r="270">
-      <c r="A270" s="20"/>
+      <c r="A270" s="18"/>
     </row>
     <row r="271">
-      <c r="A271" s="20"/>
+      <c r="A271" s="18"/>
     </row>
     <row r="272">
-      <c r="A272" s="20"/>
+      <c r="A272" s="18"/>
     </row>
     <row r="273">
-      <c r="A273" s="20"/>
+      <c r="A273" s="18"/>
     </row>
     <row r="274">
-      <c r="A274" s="20"/>
+      <c r="A274" s="18"/>
     </row>
     <row r="275">
-      <c r="A275" s="20"/>
+      <c r="A275" s="18"/>
     </row>
     <row r="276">
-      <c r="A276" s="20"/>
+      <c r="A276" s="18"/>
     </row>
     <row r="277">
-      <c r="A277" s="20"/>
+      <c r="A277" s="18"/>
     </row>
     <row r="278">
-      <c r="A278" s="20"/>
+      <c r="A278" s="18"/>
     </row>
     <row r="279">
-      <c r="A279" s="20"/>
+      <c r="A279" s="18"/>
     </row>
     <row r="280">
-      <c r="A280" s="20"/>
+      <c r="A280" s="18"/>
     </row>
     <row r="281">
-      <c r="A281" s="20"/>
+      <c r="A281" s="18"/>
     </row>
     <row r="282">
-      <c r="A282" s="20"/>
+      <c r="A282" s="18"/>
     </row>
     <row r="283">
-      <c r="A283" s="20"/>
+      <c r="A283" s="18"/>
     </row>
     <row r="284">
-      <c r="A284" s="20"/>
+      <c r="A284" s="18"/>
     </row>
     <row r="285">
-      <c r="A285" s="20"/>
+      <c r="A285" s="18"/>
     </row>
     <row r="286">
-      <c r="A286" s="20"/>
+      <c r="A286" s="18"/>
     </row>
     <row r="287">
-      <c r="A287" s="20"/>
+      <c r="A287" s="18"/>
     </row>
     <row r="288">
-      <c r="A288" s="20"/>
+      <c r="A288" s="18"/>
     </row>
     <row r="289">
-      <c r="A289" s="20"/>
+      <c r="A289" s="18"/>
     </row>
     <row r="290">
-      <c r="A290" s="20"/>
+      <c r="A290" s="18"/>
     </row>
     <row r="291">
-      <c r="A291" s="20"/>
+      <c r="A291" s="18"/>
     </row>
     <row r="292">
-      <c r="A292" s="20"/>
+      <c r="A292" s="18"/>
     </row>
     <row r="293">
-      <c r="A293" s="20"/>
+      <c r="A293" s="18"/>
     </row>
     <row r="294">
-      <c r="A294" s="20"/>
+      <c r="A294" s="18"/>
     </row>
     <row r="295">
-      <c r="A295" s="20"/>
+      <c r="A295" s="18"/>
     </row>
     <row r="296">
-      <c r="A296" s="20"/>
+      <c r="A296" s="18"/>
     </row>
     <row r="297">
-      <c r="A297" s="20"/>
+      <c r="A297" s="18"/>
     </row>
     <row r="298">
-      <c r="A298" s="20"/>
+      <c r="A298" s="18"/>
     </row>
     <row r="299">
-      <c r="A299" s="20"/>
+      <c r="A299" s="18"/>
     </row>
     <row r="300">
-      <c r="A300" s="20"/>
+      <c r="A300" s="18"/>
     </row>
     <row r="301">
-      <c r="A301" s="20"/>
+      <c r="A301" s="18"/>
     </row>
     <row r="302">
-      <c r="A302" s="20"/>
+      <c r="A302" s="18"/>
     </row>
     <row r="303">
-      <c r="A303" s="20"/>
+      <c r="A303" s="18"/>
     </row>
     <row r="304">
-      <c r="A304" s="20"/>
+      <c r="A304" s="18"/>
     </row>
     <row r="305">
-      <c r="A305" s="20"/>
+      <c r="A305" s="18"/>
     </row>
     <row r="306">
-      <c r="A306" s="20"/>
+      <c r="A306" s="18"/>
     </row>
     <row r="307">
-      <c r="A307" s="20"/>
+      <c r="A307" s="18"/>
     </row>
     <row r="308">
-      <c r="A308" s="20"/>
+      <c r="A308" s="18"/>
     </row>
     <row r="309">
-      <c r="A309" s="20"/>
+      <c r="A309" s="18"/>
     </row>
     <row r="310">
-      <c r="A310" s="20"/>
+      <c r="A310" s="18"/>
     </row>
     <row r="311">
-      <c r="A311" s="20"/>
+      <c r="A311" s="18"/>
     </row>
     <row r="312">
-      <c r="A312" s="20"/>
+      <c r="A312" s="18"/>
     </row>
     <row r="313">
-      <c r="A313" s="20"/>
+      <c r="A313" s="18"/>
     </row>
     <row r="314">
-      <c r="A314" s="20"/>
+      <c r="A314" s="18"/>
     </row>
     <row r="315">
-      <c r="A315" s="20"/>
+      <c r="A315" s="18"/>
     </row>
     <row r="316">
-      <c r="A316" s="20"/>
+      <c r="A316" s="18"/>
     </row>
     <row r="317">
-      <c r="A317" s="20"/>
+      <c r="A317" s="18"/>
     </row>
     <row r="318">
-      <c r="A318" s="20"/>
+      <c r="A318" s="18"/>
     </row>
     <row r="319">
-      <c r="A319" s="20"/>
+      <c r="A319" s="18"/>
     </row>
     <row r="320">
-      <c r="A320" s="20"/>
+      <c r="A320" s="18"/>
     </row>
     <row r="321">
-      <c r="A321" s="20"/>
+      <c r="A321" s="18"/>
     </row>
     <row r="322">
-      <c r="A322" s="20"/>
+      <c r="A322" s="18"/>
     </row>
     <row r="323">
-      <c r="A323" s="20"/>
+      <c r="A323" s="18"/>
     </row>
     <row r="324">
-      <c r="A324" s="20"/>
+      <c r="A324" s="18"/>
     </row>
     <row r="325">
-      <c r="A325" s="20"/>
+      <c r="A325" s="18"/>
     </row>
     <row r="326">
-      <c r="A326" s="20"/>
+      <c r="A326" s="18"/>
     </row>
     <row r="327">
-      <c r="A327" s="20"/>
+      <c r="A327" s="18"/>
     </row>
     <row r="328">
-      <c r="A328" s="20"/>
+      <c r="A328" s="18"/>
     </row>
     <row r="329">
-      <c r="A329" s="20"/>
+      <c r="A329" s="18"/>
     </row>
     <row r="330">
-      <c r="A330" s="20"/>
+      <c r="A330" s="18"/>
     </row>
     <row r="331">
-      <c r="A331" s="20"/>
+      <c r="A331" s="18"/>
     </row>
     <row r="332">
-      <c r="A332" s="20"/>
+      <c r="A332" s="18"/>
     </row>
     <row r="333">
-      <c r="A333" s="20"/>
+      <c r="A333" s="18"/>
     </row>
     <row r="334">
-      <c r="A334" s="20"/>
+      <c r="A334" s="18"/>
     </row>
     <row r="335">
-      <c r="A335" s="20"/>
+      <c r="A335" s="18"/>
     </row>
     <row r="336">
-      <c r="A336" s="20"/>
+      <c r="A336" s="18"/>
     </row>
     <row r="337">
-      <c r="A337" s="20"/>
+      <c r="A337" s="18"/>
     </row>
     <row r="338">
-      <c r="A338" s="20"/>
+      <c r="A338" s="18"/>
     </row>
     <row r="339">
-      <c r="A339" s="20"/>
+      <c r="A339" s="18"/>
     </row>
     <row r="340">
-      <c r="A340" s="20"/>
+      <c r="A340" s="18"/>
     </row>
     <row r="341">
-      <c r="A341" s="20"/>
+      <c r="A341" s="18"/>
     </row>
     <row r="342">
-      <c r="A342" s="20"/>
+      <c r="A342" s="18"/>
     </row>
     <row r="343">
-      <c r="A343" s="20"/>
+      <c r="A343" s="18"/>
     </row>
     <row r="344">
-      <c r="A344" s="20"/>
+      <c r="A344" s="18"/>
     </row>
     <row r="345">
-      <c r="A345" s="20"/>
+      <c r="A345" s="18"/>
     </row>
     <row r="346">
-      <c r="A346" s="20"/>
+      <c r="A346" s="18"/>
     </row>
     <row r="347">
-      <c r="A347" s="20"/>
+      <c r="A347" s="18"/>
     </row>
     <row r="348">
-      <c r="A348" s="20"/>
+      <c r="A348" s="18"/>
     </row>
     <row r="349">
-      <c r="A349" s="20"/>
+      <c r="A349" s="18"/>
     </row>
     <row r="350">
-      <c r="A350" s="20"/>
+      <c r="A350" s="18"/>
     </row>
     <row r="351">
-      <c r="A351" s="20"/>
+      <c r="A351" s="18"/>
     </row>
     <row r="352">
-      <c r="A352" s="20"/>
+      <c r="A352" s="18"/>
     </row>
     <row r="353">
-      <c r="A353" s="20"/>
+      <c r="A353" s="18"/>
     </row>
     <row r="354">
-      <c r="A354" s="20"/>
+      <c r="A354" s="18"/>
     </row>
     <row r="355">
-      <c r="A355" s="20"/>
+      <c r="A355" s="18"/>
     </row>
     <row r="356">
-      <c r="A356" s="20"/>
+      <c r="A356" s="18"/>
     </row>
     <row r="357">
-      <c r="A357" s="20"/>
+      <c r="A357" s="18"/>
     </row>
     <row r="358">
-      <c r="A358" s="20"/>
+      <c r="A358" s="18"/>
     </row>
     <row r="359">
-      <c r="A359" s="20"/>
+      <c r="A359" s="18"/>
     </row>
     <row r="360">
-      <c r="A360" s="20"/>
+      <c r="A360" s="18"/>
     </row>
     <row r="361">
-      <c r="A361" s="20"/>
+      <c r="A361" s="18"/>
     </row>
     <row r="362">
-      <c r="A362" s="20"/>
+      <c r="A362" s="18"/>
     </row>
     <row r="363">
-      <c r="A363" s="20"/>
+      <c r="A363" s="18"/>
     </row>
     <row r="364">
-      <c r="A364" s="20"/>
+      <c r="A364" s="18"/>
     </row>
     <row r="365">
-      <c r="A365" s="20"/>
+      <c r="A365" s="18"/>
     </row>
     <row r="366">
-      <c r="A366" s="20"/>
+      <c r="A366" s="18"/>
     </row>
     <row r="367">
-      <c r="A367" s="20"/>
+      <c r="A367" s="18"/>
     </row>
     <row r="368">
-      <c r="A368" s="20"/>
+      <c r="A368" s="18"/>
     </row>
     <row r="369">
-      <c r="A369" s="20"/>
+      <c r="A369" s="18"/>
     </row>
     <row r="370">
-      <c r="A370" s="20"/>
+      <c r="A370" s="18"/>
     </row>
     <row r="371">
-      <c r="A371" s="20"/>
+      <c r="A371" s="18"/>
     </row>
     <row r="372">
-      <c r="A372" s="20"/>
+      <c r="A372" s="18"/>
     </row>
     <row r="373">
-      <c r="A373" s="20"/>
+      <c r="A373" s="18"/>
     </row>
     <row r="374">
-      <c r="A374" s="20"/>
+      <c r="A374" s="18"/>
     </row>
     <row r="375">
-      <c r="A375" s="20"/>
+      <c r="A375" s="18"/>
     </row>
     <row r="376">
-      <c r="A376" s="20"/>
+      <c r="A376" s="18"/>
     </row>
     <row r="377">
-      <c r="A377" s="20"/>
+      <c r="A377" s="18"/>
     </row>
     <row r="378">
-      <c r="A378" s="20"/>
+      <c r="A378" s="18"/>
     </row>
     <row r="379">
-      <c r="A379" s="20"/>
+      <c r="A379" s="18"/>
     </row>
     <row r="380">
-      <c r="A380" s="20"/>
+      <c r="A380" s="18"/>
     </row>
     <row r="381">
-      <c r="A381" s="20"/>
+      <c r="A381" s="18"/>
     </row>
     <row r="382">
-      <c r="A382" s="20"/>
+      <c r="A382" s="18"/>
     </row>
     <row r="383">
-      <c r="A383" s="20"/>
+      <c r="A383" s="18"/>
     </row>
     <row r="384">
-      <c r="A384" s="20"/>
+      <c r="A384" s="18"/>
     </row>
     <row r="385">
-      <c r="A385" s="20"/>
+      <c r="A385" s="18"/>
     </row>
     <row r="386">
-      <c r="A386" s="20"/>
+      <c r="A386" s="18"/>
     </row>
     <row r="387">
-      <c r="A387" s="20"/>
+      <c r="A387" s="18"/>
     </row>
     <row r="388">
-      <c r="A388" s="20"/>
+      <c r="A388" s="18"/>
     </row>
     <row r="389">
-      <c r="A389" s="20"/>
+      <c r="A389" s="18"/>
     </row>
     <row r="390">
-      <c r="A390" s="20"/>
+      <c r="A390" s="18"/>
     </row>
     <row r="391">
-      <c r="A391" s="20"/>
+      <c r="A391" s="18"/>
     </row>
     <row r="392">
-      <c r="A392" s="20"/>
+      <c r="A392" s="18"/>
     </row>
     <row r="393">
-      <c r="A393" s="20"/>
+      <c r="A393" s="18"/>
     </row>
     <row r="394">
-      <c r="A394" s="20"/>
+      <c r="A394" s="18"/>
     </row>
     <row r="395">
-      <c r="A395" s="20"/>
+      <c r="A395" s="18"/>
     </row>
     <row r="396">
-      <c r="A396" s="20"/>
+      <c r="A396" s="18"/>
     </row>
     <row r="397">
-      <c r="A397" s="20"/>
+      <c r="A397" s="18"/>
     </row>
     <row r="398">
-      <c r="A398" s="20"/>
+      <c r="A398" s="18"/>
     </row>
     <row r="399">
-      <c r="A399" s="20"/>
+      <c r="A399" s="18"/>
     </row>
     <row r="400">
-      <c r="A400" s="20"/>
+      <c r="A400" s="18"/>
     </row>
     <row r="401">
-      <c r="A401" s="20"/>
+      <c r="A401" s="18"/>
     </row>
     <row r="402">
-      <c r="A402" s="20"/>
+      <c r="A402" s="18"/>
     </row>
     <row r="403">
-      <c r="A403" s="20"/>
+      <c r="A403" s="18"/>
     </row>
     <row r="404">
-      <c r="A404" s="20"/>
+      <c r="A404" s="18"/>
     </row>
     <row r="405">
-      <c r="A405" s="20"/>
+      <c r="A405" s="18"/>
     </row>
     <row r="406">
-      <c r="A406" s="20"/>
+      <c r="A406" s="18"/>
     </row>
     <row r="407">
-      <c r="A407" s="20"/>
+      <c r="A407" s="18"/>
     </row>
     <row r="408">
-      <c r="A408" s="20"/>
+      <c r="A408" s="18"/>
     </row>
     <row r="409">
-      <c r="A409" s="20"/>
+      <c r="A409" s="18"/>
     </row>
     <row r="410">
-      <c r="A410" s="20"/>
+      <c r="A410" s="18"/>
     </row>
     <row r="411">
-      <c r="A411" s="20"/>
+      <c r="A411" s="18"/>
     </row>
     <row r="412">
-      <c r="A412" s="20"/>
+      <c r="A412" s="18"/>
     </row>
     <row r="413">
-      <c r="A413" s="20"/>
+      <c r="A413" s="18"/>
     </row>
     <row r="414">
-      <c r="A414" s="20"/>
+      <c r="A414" s="18"/>
     </row>
     <row r="415">
-      <c r="A415" s="20"/>
+      <c r="A415" s="18"/>
     </row>
     <row r="416">
-      <c r="A416" s="20"/>
+      <c r="A416" s="18"/>
     </row>
     <row r="417">
-      <c r="A417" s="20"/>
+      <c r="A417" s="18"/>
     </row>
     <row r="418">
-      <c r="A418" s="20"/>
+      <c r="A418" s="18"/>
     </row>
     <row r="419">
-      <c r="A419" s="20"/>
+      <c r="A419" s="18"/>
     </row>
     <row r="420">
-      <c r="A420" s="20"/>
+      <c r="A420" s="18"/>
     </row>
     <row r="421">
-      <c r="A421" s="20"/>
+      <c r="A421" s="18"/>
     </row>
     <row r="422">
-      <c r="A422" s="20"/>
+      <c r="A422" s="18"/>
     </row>
     <row r="423">
-      <c r="A423" s="20"/>
+      <c r="A423" s="18"/>
     </row>
     <row r="424">
-      <c r="A424" s="20"/>
+      <c r="A424" s="18"/>
     </row>
     <row r="425">
-      <c r="A425" s="20"/>
+      <c r="A425" s="18"/>
     </row>
     <row r="426">
-      <c r="A426" s="20"/>
+      <c r="A426" s="18"/>
     </row>
     <row r="427">
-      <c r="A427" s="20"/>
+      <c r="A427" s="18"/>
     </row>
     <row r="428">
-      <c r="A428" s="20"/>
+      <c r="A428" s="18"/>
     </row>
     <row r="429">
-      <c r="A429" s="20"/>
+      <c r="A429" s="18"/>
     </row>
     <row r="430">
-      <c r="A430" s="20"/>
+      <c r="A430" s="18"/>
     </row>
     <row r="431">
-      <c r="A431" s="20"/>
+      <c r="A431" s="18"/>
     </row>
     <row r="432">
-      <c r="A432" s="20"/>
+      <c r="A432" s="18"/>
     </row>
     <row r="433">
-      <c r="A433" s="20"/>
+      <c r="A433" s="18"/>
     </row>
     <row r="434">
-      <c r="A434" s="20"/>
+      <c r="A434" s="18"/>
     </row>
     <row r="435">
-      <c r="A435" s="20"/>
+      <c r="A435" s="18"/>
     </row>
     <row r="436">
-      <c r="A436" s="20"/>
+      <c r="A436" s="18"/>
     </row>
     <row r="437">
-      <c r="A437" s="20"/>
+      <c r="A437" s="18"/>
     </row>
     <row r="438">
-      <c r="A438" s="20"/>
+      <c r="A438" s="18"/>
     </row>
     <row r="439">
-      <c r="A439" s="20"/>
+      <c r="A439" s="18"/>
     </row>
     <row r="440">
-      <c r="A440" s="20"/>
+      <c r="A440" s="18"/>
     </row>
     <row r="441">
-      <c r="A441" s="20"/>
+      <c r="A441" s="18"/>
     </row>
     <row r="442">
-      <c r="A442" s="20"/>
+      <c r="A442" s="18"/>
     </row>
     <row r="443">
-      <c r="A443" s="20"/>
+      <c r="A443" s="18"/>
     </row>
     <row r="444">
-      <c r="A444" s="20"/>
+      <c r="A444" s="18"/>
     </row>
     <row r="445">
-      <c r="A445" s="20"/>
+      <c r="A445" s="18"/>
     </row>
     <row r="446">
-      <c r="A446" s="20"/>
+      <c r="A446" s="18"/>
     </row>
     <row r="447">
-      <c r="A447" s="20"/>
+      <c r="A447" s="18"/>
     </row>
     <row r="448">
-      <c r="A448" s="20"/>
+      <c r="A448" s="18"/>
     </row>
     <row r="449">
-      <c r="A449" s="20"/>
+      <c r="A449" s="18"/>
     </row>
     <row r="450">
-      <c r="A450" s="20"/>
+      <c r="A450" s="18"/>
     </row>
     <row r="451">
-      <c r="A451" s="20"/>
+      <c r="A451" s="18"/>
     </row>
     <row r="452">
-      <c r="A452" s="20"/>
+      <c r="A452" s="18"/>
     </row>
     <row r="453">
-      <c r="A453" s="20"/>
+      <c r="A453" s="18"/>
     </row>
     <row r="454">
-      <c r="A454" s="20"/>
+      <c r="A454" s="18"/>
     </row>
     <row r="455">
-      <c r="A455" s="20"/>
+      <c r="A455" s="18"/>
     </row>
     <row r="456">
-      <c r="A456" s="20"/>
+      <c r="A456" s="18"/>
     </row>
     <row r="457">
-      <c r="A457" s="20"/>
+      <c r="A457" s="18"/>
     </row>
     <row r="458">
-      <c r="A458" s="20"/>
+      <c r="A458" s="18"/>
     </row>
     <row r="459">
-      <c r="A459" s="20"/>
+      <c r="A459" s="18"/>
     </row>
     <row r="460">
-      <c r="A460" s="20"/>
+      <c r="A460" s="18"/>
     </row>
     <row r="461">
-      <c r="A461" s="20"/>
+      <c r="A461" s="18"/>
     </row>
     <row r="462">
-      <c r="A462" s="20"/>
+      <c r="A462" s="18"/>
     </row>
     <row r="463">
-      <c r="A463" s="20"/>
+      <c r="A463" s="18"/>
     </row>
     <row r="464">
-      <c r="A464" s="20"/>
+      <c r="A464" s="18"/>
     </row>
     <row r="465">
-      <c r="A465" s="20"/>
+      <c r="A465" s="18"/>
     </row>
     <row r="466">
-      <c r="A466" s="20"/>
+      <c r="A466" s="18"/>
     </row>
     <row r="467">
-      <c r="A467" s="20"/>
+      <c r="A467" s="18"/>
     </row>
     <row r="468">
-      <c r="A468" s="20"/>
+      <c r="A468" s="18"/>
     </row>
     <row r="469">
-      <c r="A469" s="20"/>
+      <c r="A469" s="18"/>
     </row>
     <row r="470">
-      <c r="A470" s="20"/>
+      <c r="A470" s="18"/>
     </row>
     <row r="471">
-      <c r="A471" s="20"/>
+      <c r="A471" s="18"/>
     </row>
     <row r="472">
-      <c r="A472" s="20"/>
+      <c r="A472" s="18"/>
     </row>
     <row r="473">
-      <c r="A473" s="20"/>
+      <c r="A473" s="18"/>
     </row>
     <row r="474">
-      <c r="A474" s="20"/>
+      <c r="A474" s="18"/>
     </row>
     <row r="475">
-      <c r="A475" s="20"/>
+      <c r="A475" s="18"/>
     </row>
     <row r="476">
-      <c r="A476" s="20"/>
+      <c r="A476" s="18"/>
     </row>
     <row r="477">
-      <c r="A477" s="20"/>
+      <c r="A477" s="18"/>
     </row>
     <row r="478">
-      <c r="A478" s="20"/>
+      <c r="A478" s="18"/>
     </row>
     <row r="479">
-      <c r="A479" s="20"/>
+      <c r="A479" s="18"/>
     </row>
     <row r="480">
-      <c r="A480" s="20"/>
+      <c r="A480" s="18"/>
     </row>
     <row r="481">
-      <c r="A481" s="20"/>
+      <c r="A481" s="18"/>
     </row>
     <row r="482">
-      <c r="A482" s="20"/>
+      <c r="A482" s="18"/>
     </row>
     <row r="483">
-      <c r="A483" s="20"/>
+      <c r="A483" s="18"/>
     </row>
     <row r="484">
-      <c r="A484" s="20"/>
+      <c r="A484" s="18"/>
     </row>
     <row r="485">
-      <c r="A485" s="20"/>
+      <c r="A485" s="18"/>
     </row>
     <row r="486">
-      <c r="A486" s="20"/>
+      <c r="A486" s="18"/>
     </row>
     <row r="487">
-      <c r="A487" s="20"/>
+      <c r="A487" s="18"/>
     </row>
     <row r="488">
-      <c r="A488" s="20"/>
+      <c r="A488" s="18"/>
     </row>
     <row r="489">
-      <c r="A489" s="20"/>
+      <c r="A489" s="18"/>
     </row>
     <row r="490">
-      <c r="A490" s="20"/>
+      <c r="A490" s="18"/>
     </row>
     <row r="491">
-      <c r="A491" s="20"/>
+      <c r="A491" s="18"/>
     </row>
     <row r="492">
-      <c r="A492" s="20"/>
+      <c r="A492" s="18"/>
     </row>
     <row r="493">
-      <c r="A493" s="20"/>
+      <c r="A493" s="18"/>
     </row>
     <row r="494">
-      <c r="A494" s="20"/>
+      <c r="A494" s="18"/>
     </row>
     <row r="495">
-      <c r="A495" s="20"/>
+      <c r="A495" s="18"/>
     </row>
     <row r="496">
-      <c r="A496" s="20"/>
+      <c r="A496" s="18"/>
     </row>
     <row r="497">
-      <c r="A497" s="20"/>
+      <c r="A497" s="18"/>
     </row>
     <row r="498">
-      <c r="A498" s="20"/>
+      <c r="A498" s="18"/>
     </row>
     <row r="499">
-      <c r="A499" s="20"/>
+      <c r="A499" s="18"/>
     </row>
     <row r="500">
-      <c r="A500" s="20"/>
+      <c r="A500" s="18"/>
     </row>
     <row r="501">
-      <c r="A501" s="20"/>
+      <c r="A501" s="18"/>
     </row>
     <row r="502">
-      <c r="A502" s="20"/>
+      <c r="A502" s="18"/>
     </row>
     <row r="503">
-      <c r="A503" s="20"/>
+      <c r="A503" s="18"/>
     </row>
     <row r="504">
-      <c r="A504" s="20"/>
+      <c r="A504" s="18"/>
     </row>
     <row r="505">
-      <c r="A505" s="20"/>
+      <c r="A505" s="18"/>
     </row>
     <row r="506">
-      <c r="A506" s="20"/>
+      <c r="A506" s="18"/>
     </row>
     <row r="507">
-      <c r="A507" s="20"/>
+      <c r="A507" s="18"/>
     </row>
     <row r="508">
-      <c r="A508" s="20"/>
+      <c r="A508" s="18"/>
     </row>
     <row r="509">
-      <c r="A509" s="20"/>
+      <c r="A509" s="18"/>
     </row>
     <row r="510">
-      <c r="A510" s="20"/>
+      <c r="A510" s="18"/>
     </row>
     <row r="511">
-      <c r="A511" s="20"/>
+      <c r="A511" s="18"/>
     </row>
     <row r="512">
-      <c r="A512" s="20"/>
+      <c r="A512" s="18"/>
     </row>
     <row r="513">
-      <c r="A513" s="20"/>
+      <c r="A513" s="18"/>
     </row>
     <row r="514">
-      <c r="A514" s="20"/>
+      <c r="A514" s="18"/>
     </row>
     <row r="515">
-      <c r="A515" s="20"/>
+      <c r="A515" s="18"/>
     </row>
     <row r="516">
-      <c r="A516" s="20"/>
+      <c r="A516" s="18"/>
     </row>
     <row r="517">
-      <c r="A517" s="20"/>
+      <c r="A517" s="18"/>
     </row>
     <row r="518">
-      <c r="A518" s="20"/>
+      <c r="A518" s="18"/>
     </row>
     <row r="519">
-      <c r="A519" s="20"/>
+      <c r="A519" s="18"/>
     </row>
     <row r="520">
-      <c r="A520" s="20"/>
+      <c r="A520" s="18"/>
     </row>
     <row r="521">
-      <c r="A521" s="20"/>
+      <c r="A521" s="18"/>
     </row>
     <row r="522">
-      <c r="A522" s="20"/>
+      <c r="A522" s="18"/>
     </row>
     <row r="523">
-      <c r="A523" s="20"/>
+      <c r="A523" s="18"/>
     </row>
     <row r="524">
-      <c r="A524" s="20"/>
+      <c r="A524" s="18"/>
     </row>
     <row r="525">
-      <c r="A525" s="20"/>
+      <c r="A525" s="18"/>
     </row>
     <row r="526">
-      <c r="A526" s="20"/>
+      <c r="A526" s="18"/>
     </row>
     <row r="527">
-      <c r="A527" s="20"/>
+      <c r="A527" s="18"/>
     </row>
     <row r="528">
-      <c r="A528" s="20"/>
+      <c r="A528" s="18"/>
     </row>
     <row r="529">
-      <c r="A529" s="20"/>
+      <c r="A529" s="18"/>
     </row>
     <row r="530">
-      <c r="A530" s="20"/>
+      <c r="A530" s="18"/>
     </row>
     <row r="531">
-      <c r="A531" s="20"/>
+      <c r="A531" s="18"/>
     </row>
     <row r="532">
-      <c r="A532" s="20"/>
+      <c r="A532" s="18"/>
     </row>
     <row r="533">
-      <c r="A533" s="20"/>
+      <c r="A533" s="18"/>
     </row>
     <row r="534">
-      <c r="A534" s="20"/>
+      <c r="A534" s="18"/>
     </row>
     <row r="535">
-      <c r="A535" s="20"/>
+      <c r="A535" s="18"/>
     </row>
     <row r="536">
-      <c r="A536" s="20"/>
+      <c r="A536" s="18"/>
     </row>
     <row r="537">
-      <c r="A537" s="20"/>
+      <c r="A537" s="18"/>
     </row>
     <row r="538">
-      <c r="A538" s="20"/>
+      <c r="A538" s="18"/>
     </row>
     <row r="539">
-      <c r="A539" s="20"/>
+      <c r="A539" s="18"/>
     </row>
     <row r="540">
-      <c r="A540" s="20"/>
+      <c r="A540" s="18"/>
     </row>
     <row r="541">
-      <c r="A541" s="20"/>
+      <c r="A541" s="18"/>
     </row>
     <row r="542">
-      <c r="A542" s="20"/>
+      <c r="A542" s="18"/>
     </row>
     <row r="543">
-      <c r="A543" s="20"/>
+      <c r="A543" s="18"/>
     </row>
     <row r="544">
-      <c r="A544" s="20"/>
+      <c r="A544" s="18"/>
     </row>
     <row r="545">
-      <c r="A545" s="20"/>
+      <c r="A545" s="18"/>
     </row>
     <row r="546">
-      <c r="A546" s="20"/>
+      <c r="A546" s="18"/>
     </row>
     <row r="547">
-      <c r="A547" s="20"/>
+      <c r="A547" s="18"/>
     </row>
     <row r="548">
-      <c r="A548" s="20"/>
+      <c r="A548" s="18"/>
     </row>
     <row r="549">
-      <c r="A549" s="20"/>
+      <c r="A549" s="18"/>
     </row>
     <row r="550">
-      <c r="A550" s="20"/>
+      <c r="A550" s="18"/>
     </row>
     <row r="551">
-      <c r="A551" s="20"/>
+      <c r="A551" s="18"/>
     </row>
     <row r="552">
-      <c r="A552" s="20"/>
+      <c r="A552" s="18"/>
     </row>
     <row r="553">
-      <c r="A553" s="20"/>
+      <c r="A553" s="18"/>
     </row>
     <row r="554">
-      <c r="A554" s="20"/>
+      <c r="A554" s="18"/>
     </row>
     <row r="555">
-      <c r="A555" s="20"/>
+      <c r="A555" s="18"/>
     </row>
     <row r="556">
-      <c r="A556" s="20"/>
+      <c r="A556" s="18"/>
     </row>
     <row r="557">
-      <c r="A557" s="20"/>
+      <c r="A557" s="18"/>
     </row>
     <row r="558">
-      <c r="A558" s="20"/>
+      <c r="A558" s="18"/>
     </row>
     <row r="559">
-      <c r="A559" s="20"/>
+      <c r="A559" s="18"/>
     </row>
     <row r="560">
-      <c r="A560" s="20"/>
+      <c r="A560" s="18"/>
     </row>
     <row r="561">
-      <c r="A561" s="20"/>
+      <c r="A561" s="18"/>
     </row>
     <row r="562">
-      <c r="A562" s="20"/>
+      <c r="A562" s="18"/>
     </row>
     <row r="563">
-      <c r="A563" s="20"/>
+      <c r="A563" s="18"/>
     </row>
     <row r="564">
-      <c r="A564" s="20"/>
+      <c r="A564" s="18"/>
     </row>
     <row r="565">
-      <c r="A565" s="20"/>
+      <c r="A565" s="18"/>
     </row>
     <row r="566">
-      <c r="A566" s="20"/>
+      <c r="A566" s="18"/>
     </row>
     <row r="567">
-      <c r="A567" s="20"/>
+      <c r="A567" s="18"/>
     </row>
     <row r="568">
-      <c r="A568" s="20"/>
+      <c r="A568" s="18"/>
     </row>
     <row r="569">
-      <c r="A569" s="20"/>
+      <c r="A569" s="18"/>
     </row>
     <row r="570">
-      <c r="A570" s="20"/>
+      <c r="A570" s="18"/>
     </row>
     <row r="571">
-      <c r="A571" s="20"/>
+      <c r="A571" s="18"/>
     </row>
     <row r="572">
-      <c r="A572" s="20"/>
+      <c r="A572" s="18"/>
     </row>
     <row r="573">
-      <c r="A573" s="20"/>
+      <c r="A573" s="18"/>
     </row>
     <row r="574">
-      <c r="A574" s="20"/>
+      <c r="A574" s="18"/>
     </row>
     <row r="575">
-      <c r="A575" s="20"/>
+      <c r="A575" s="18"/>
     </row>
     <row r="576">
-      <c r="A576" s="20"/>
+      <c r="A576" s="18"/>
     </row>
     <row r="577">
-      <c r="A577" s="20"/>
+      <c r="A577" s="18"/>
     </row>
     <row r="578">
-      <c r="A578" s="20"/>
+      <c r="A578" s="18"/>
     </row>
     <row r="579">
-      <c r="A579" s="20"/>
+      <c r="A579" s="18"/>
     </row>
     <row r="580">
-      <c r="A580" s="20"/>
+      <c r="A580" s="18"/>
     </row>
     <row r="581">
-      <c r="A581" s="20"/>
+      <c r="A581" s="18"/>
     </row>
     <row r="582">
-      <c r="A582" s="20"/>
+      <c r="A582" s="18"/>
     </row>
     <row r="583">
-      <c r="A583" s="20"/>
+      <c r="A583" s="18"/>
     </row>
     <row r="584">
-      <c r="A584" s="20"/>
+      <c r="A584" s="18"/>
     </row>
     <row r="585">
-      <c r="A585" s="20"/>
+      <c r="A585" s="18"/>
     </row>
     <row r="586">
-      <c r="A586" s="20"/>
+      <c r="A586" s="18"/>
     </row>
     <row r="587">
-      <c r="A587" s="20"/>
+      <c r="A587" s="18"/>
     </row>
     <row r="588">
-      <c r="A588" s="20"/>
+      <c r="A588" s="18"/>
     </row>
     <row r="589">
-      <c r="A589" s="20"/>
+      <c r="A589" s="18"/>
     </row>
     <row r="590">
-      <c r="A590" s="20"/>
+      <c r="A590" s="18"/>
     </row>
     <row r="591">
-      <c r="A591" s="20"/>
+      <c r="A591" s="18"/>
     </row>
     <row r="592">
-      <c r="A592" s="20"/>
+      <c r="A592" s="18"/>
     </row>
     <row r="593">
-      <c r="A593" s="20"/>
+      <c r="A593" s="18"/>
     </row>
     <row r="594">
-      <c r="A594" s="20"/>
+      <c r="A594" s="18"/>
     </row>
     <row r="595">
-      <c r="A595" s="20"/>
+      <c r="A595" s="18"/>
     </row>
     <row r="596">
-      <c r="A596" s="20"/>
+      <c r="A596" s="18"/>
     </row>
     <row r="597">
-      <c r="A597" s="20"/>
+      <c r="A597" s="18"/>
     </row>
     <row r="598">
-      <c r="A598" s="20"/>
+      <c r="A598" s="18"/>
     </row>
     <row r="599">
-      <c r="A599" s="20"/>
+      <c r="A599" s="18"/>
     </row>
     <row r="600">
-      <c r="A600" s="20"/>
+      <c r="A600" s="18"/>
     </row>
     <row r="601">
-      <c r="A601" s="20"/>
+      <c r="A601" s="18"/>
     </row>
     <row r="602">
-      <c r="A602" s="20"/>
+      <c r="A602" s="18"/>
     </row>
     <row r="603">
-      <c r="A603" s="20"/>
+      <c r="A603" s="18"/>
     </row>
     <row r="604">
-      <c r="A604" s="20"/>
+      <c r="A604" s="18"/>
     </row>
     <row r="605">
-      <c r="A605" s="20"/>
+      <c r="A605" s="18"/>
     </row>
     <row r="606">
-      <c r="A606" s="20"/>
+      <c r="A606" s="18"/>
     </row>
     <row r="607">
-      <c r="A607" s="20"/>
+      <c r="A607" s="18"/>
     </row>
     <row r="608">
-      <c r="A608" s="20"/>
+      <c r="A608" s="18"/>
     </row>
     <row r="609">
-      <c r="A609" s="20"/>
+      <c r="A609" s="18"/>
     </row>
     <row r="610">
-      <c r="A610" s="20"/>
+      <c r="A610" s="18"/>
     </row>
     <row r="611">
-      <c r="A611" s="20"/>
+      <c r="A611" s="18"/>
     </row>
     <row r="612">
-      <c r="A612" s="20"/>
+      <c r="A612" s="18"/>
     </row>
     <row r="613">
-      <c r="A613" s="20"/>
+      <c r="A613" s="18"/>
     </row>
     <row r="614">
-      <c r="A614" s="20"/>
+      <c r="A614" s="18"/>
     </row>
     <row r="615">
-      <c r="A615" s="20"/>
+      <c r="A615" s="18"/>
     </row>
     <row r="616">
-      <c r="A616" s="20"/>
+      <c r="A616" s="18"/>
     </row>
     <row r="617">
-      <c r="A617" s="20"/>
+      <c r="A617" s="18"/>
     </row>
     <row r="618">
-      <c r="A618" s="20"/>
+      <c r="A618" s="18"/>
     </row>
     <row r="619">
-      <c r="A619" s="20"/>
+      <c r="A619" s="18"/>
     </row>
     <row r="620">
-      <c r="A620" s="20"/>
+      <c r="A620" s="18"/>
     </row>
     <row r="621">
-      <c r="A621" s="20"/>
+      <c r="A621" s="18"/>
     </row>
     <row r="622">
-      <c r="A622" s="20"/>
+      <c r="A622" s="18"/>
     </row>
     <row r="623">
-      <c r="A623" s="20"/>
+      <c r="A623" s="18"/>
     </row>
     <row r="624">
-      <c r="A624" s="20"/>
+      <c r="A624" s="18"/>
     </row>
     <row r="625">
-      <c r="A625" s="20"/>
+      <c r="A625" s="18"/>
     </row>
     <row r="626">
-      <c r="A626" s="20"/>
+      <c r="A626" s="18"/>
     </row>
     <row r="627">
-      <c r="A627" s="20"/>
+      <c r="A627" s="18"/>
     </row>
     <row r="628">
-      <c r="A628" s="20"/>
+      <c r="A628" s="18"/>
     </row>
     <row r="629">
-      <c r="A629" s="20"/>
+      <c r="A629" s="18"/>
     </row>
     <row r="630">
-      <c r="A630" s="20"/>
+      <c r="A630" s="18"/>
     </row>
     <row r="631">
-      <c r="A631" s="20"/>
+      <c r="A631" s="18"/>
     </row>
     <row r="632">
-      <c r="A632" s="20"/>
+      <c r="A632" s="18"/>
     </row>
     <row r="633">
-      <c r="A633" s="20"/>
+      <c r="A633" s="18"/>
     </row>
     <row r="634">
-      <c r="A634" s="20"/>
+      <c r="A634" s="18"/>
     </row>
     <row r="635">
-      <c r="A635" s="20"/>
+      <c r="A635" s="18"/>
     </row>
     <row r="636">
-      <c r="A636" s="20"/>
+      <c r="A636" s="18"/>
     </row>
     <row r="637">
-      <c r="A637" s="20"/>
+      <c r="A637" s="18"/>
     </row>
     <row r="638">
-      <c r="A638" s="20"/>
+      <c r="A638" s="18"/>
     </row>
     <row r="639">
-      <c r="A639" s="20"/>
+      <c r="A639" s="18"/>
     </row>
     <row r="640">
-      <c r="A640" s="20"/>
+      <c r="A640" s="18"/>
     </row>
     <row r="641">
-      <c r="A641" s="20"/>
+      <c r="A641" s="18"/>
     </row>
     <row r="642">
-      <c r="A642" s="20"/>
+      <c r="A642" s="18"/>
     </row>
     <row r="643">
-      <c r="A643" s="20"/>
+      <c r="A643" s="18"/>
     </row>
     <row r="644">
-      <c r="A644" s="20"/>
+      <c r="A644" s="18"/>
     </row>
     <row r="645">
-      <c r="A645" s="20"/>
+      <c r="A645" s="18"/>
     </row>
     <row r="646">
-      <c r="A646" s="20"/>
+      <c r="A646" s="18"/>
     </row>
     <row r="647">
-      <c r="A647" s="20"/>
+      <c r="A647" s="18"/>
     </row>
     <row r="648">
-      <c r="A648" s="20"/>
+      <c r="A648" s="18"/>
     </row>
     <row r="649">
-      <c r="A649" s="20"/>
+      <c r="A649" s="18"/>
     </row>
     <row r="650">
-      <c r="A650" s="20"/>
+      <c r="A650" s="18"/>
     </row>
     <row r="651">
-      <c r="A651" s="20"/>
+      <c r="A651" s="18"/>
     </row>
     <row r="652">
-      <c r="A652" s="20"/>
+      <c r="A652" s="18"/>
     </row>
     <row r="653">
-      <c r="A653" s="20"/>
+      <c r="A653" s="18"/>
     </row>
     <row r="654">
-      <c r="A654" s="20"/>
+      <c r="A654" s="18"/>
     </row>
     <row r="655">
-      <c r="A655" s="20"/>
+      <c r="A655" s="18"/>
     </row>
     <row r="656">
-      <c r="A656" s="20"/>
+      <c r="A656" s="18"/>
     </row>
     <row r="657">
-      <c r="A657" s="20"/>
+      <c r="A657" s="18"/>
     </row>
     <row r="658">
-      <c r="A658" s="20"/>
+      <c r="A658" s="18"/>
     </row>
     <row r="659">
-      <c r="A659" s="20"/>
+      <c r="A659" s="18"/>
     </row>
     <row r="660">
-      <c r="A660" s="20"/>
+      <c r="A660" s="18"/>
     </row>
     <row r="661">
-      <c r="A661" s="20"/>
+      <c r="A661" s="18"/>
     </row>
     <row r="662">
-      <c r="A662" s="20"/>
+      <c r="A662" s="18"/>
     </row>
     <row r="663">
-      <c r="A663" s="20"/>
+      <c r="A663" s="18"/>
     </row>
     <row r="664">
-      <c r="A664" s="20"/>
+      <c r="A664" s="18"/>
     </row>
     <row r="665">
-      <c r="A665" s="20"/>
+      <c r="A665" s="18"/>
     </row>
     <row r="666">
-      <c r="A666" s="20"/>
+      <c r="A666" s="18"/>
     </row>
     <row r="667">
-      <c r="A667" s="20"/>
+      <c r="A667" s="18"/>
     </row>
     <row r="668">
-      <c r="A668" s="20"/>
+      <c r="A668" s="18"/>
     </row>
     <row r="669">
-      <c r="A669" s="20"/>
+      <c r="A669" s="18"/>
     </row>
     <row r="670">
-      <c r="A670" s="20"/>
+      <c r="A670" s="18"/>
     </row>
     <row r="671">
-      <c r="A671" s="20"/>
+      <c r="A671" s="18"/>
     </row>
     <row r="672">
-      <c r="A672" s="20"/>
+      <c r="A672" s="18"/>
     </row>
     <row r="673">
-      <c r="A673" s="20"/>
+      <c r="A673" s="18"/>
     </row>
     <row r="674">
-      <c r="A674" s="20"/>
+      <c r="A674" s="18"/>
     </row>
     <row r="675">
-      <c r="A675" s="20"/>
+      <c r="A675" s="18"/>
     </row>
     <row r="676">
-      <c r="A676" s="20"/>
+      <c r="A676" s="18"/>
     </row>
     <row r="677">
-      <c r="A677" s="20"/>
+      <c r="A677" s="18"/>
     </row>
     <row r="678">
-      <c r="A678" s="20"/>
+      <c r="A678" s="18"/>
     </row>
     <row r="679">
-      <c r="A679" s="20"/>
+      <c r="A679" s="18"/>
     </row>
     <row r="680">
-      <c r="A680" s="20"/>
+      <c r="A680" s="18"/>
     </row>
     <row r="681">
-      <c r="A681" s="20"/>
+      <c r="A681" s="18"/>
     </row>
     <row r="682">
-      <c r="A682" s="20"/>
+      <c r="A682" s="18"/>
     </row>
     <row r="683">
-      <c r="A683" s="20"/>
+      <c r="A683" s="18"/>
     </row>
     <row r="684">
-      <c r="A684" s="20"/>
+      <c r="A684" s="18"/>
     </row>
     <row r="685">
-      <c r="A685" s="20"/>
+      <c r="A685" s="18"/>
     </row>
     <row r="686">
-      <c r="A686" s="20"/>
+      <c r="A686" s="18"/>
     </row>
     <row r="687">
-      <c r="A687" s="20"/>
+      <c r="A687" s="18"/>
     </row>
     <row r="688">
-      <c r="A688" s="20"/>
+      <c r="A688" s="18"/>
     </row>
     <row r="689">
-      <c r="A689" s="20"/>
+      <c r="A689" s="18"/>
     </row>
     <row r="690">
-      <c r="A690" s="20"/>
+      <c r="A690" s="18"/>
     </row>
     <row r="691">
-      <c r="A691" s="20"/>
+      <c r="A691" s="18"/>
     </row>
     <row r="692">
-      <c r="A692" s="20"/>
+      <c r="A692" s="18"/>
     </row>
     <row r="693">
-      <c r="A693" s="20"/>
+      <c r="A693" s="18"/>
     </row>
     <row r="694">
-      <c r="A694" s="20"/>
+      <c r="A694" s="18"/>
     </row>
     <row r="695">
-      <c r="A695" s="20"/>
+      <c r="A695" s="18"/>
     </row>
     <row r="696">
-      <c r="A696" s="20"/>
+      <c r="A696" s="18"/>
     </row>
     <row r="697">
-      <c r="A697" s="20"/>
+      <c r="A697" s="18"/>
     </row>
     <row r="698">
-      <c r="A698" s="20"/>
+      <c r="A698" s="18"/>
     </row>
     <row r="699">
-      <c r="A699" s="20"/>
+      <c r="A699" s="18"/>
     </row>
     <row r="700">
-      <c r="A700" s="20"/>
+      <c r="A700" s="18"/>
     </row>
     <row r="701">
-      <c r="A701" s="20"/>
+      <c r="A701" s="18"/>
     </row>
     <row r="702">
-      <c r="A702" s="20"/>
+      <c r="A702" s="18"/>
     </row>
     <row r="703">
-      <c r="A703" s="20"/>
+      <c r="A703" s="18"/>
     </row>
     <row r="704">
-      <c r="A704" s="20"/>
+      <c r="A704" s="18"/>
     </row>
     <row r="705">
-      <c r="A705" s="20"/>
+      <c r="A705" s="18"/>
     </row>
     <row r="706">
-      <c r="A706" s="20"/>
+      <c r="A706" s="18"/>
     </row>
     <row r="707">
-      <c r="A707" s="20"/>
+      <c r="A707" s="18"/>
     </row>
     <row r="708">
-      <c r="A708" s="20"/>
+      <c r="A708" s="18"/>
     </row>
     <row r="709">
-      <c r="A709" s="20"/>
+      <c r="A709" s="18"/>
     </row>
     <row r="710">
-      <c r="A710" s="20"/>
+      <c r="A710" s="18"/>
     </row>
     <row r="711">
-      <c r="A711" s="20"/>
+      <c r="A711" s="18"/>
     </row>
     <row r="712">
-      <c r="A712" s="20"/>
+      <c r="A712" s="18"/>
     </row>
     <row r="713">
-      <c r="A713" s="20"/>
+      <c r="A713" s="18"/>
     </row>
     <row r="714">
-      <c r="A714" s="20"/>
+      <c r="A714" s="18"/>
     </row>
     <row r="715">
-      <c r="A715" s="20"/>
+      <c r="A715" s="18"/>
     </row>
     <row r="716">
-      <c r="A716" s="20"/>
+      <c r="A716" s="18"/>
     </row>
     <row r="717">
-      <c r="A717" s="20"/>
+      <c r="A717" s="18"/>
     </row>
     <row r="718">
-      <c r="A718" s="20"/>
+      <c r="A718" s="18"/>
     </row>
     <row r="719">
-      <c r="A719" s="20"/>
+      <c r="A719" s="18"/>
     </row>
     <row r="720">
-      <c r="A720" s="20"/>
+      <c r="A720" s="18"/>
     </row>
     <row r="721">
-      <c r="A721" s="20"/>
+      <c r="A721" s="18"/>
     </row>
     <row r="722">
-      <c r="A722" s="20"/>
+      <c r="A722" s="18"/>
     </row>
     <row r="723">
-      <c r="A723" s="20"/>
+      <c r="A723" s="18"/>
     </row>
     <row r="724">
-      <c r="A724" s="20"/>
+      <c r="A724" s="18"/>
     </row>
     <row r="725">
-      <c r="A725" s="20"/>
+      <c r="A725" s="18"/>
     </row>
     <row r="726">
-      <c r="A726" s="20"/>
+      <c r="A726" s="18"/>
     </row>
     <row r="727">
-      <c r="A727" s="20"/>
+      <c r="A727" s="18"/>
     </row>
     <row r="728">
-      <c r="A728" s="20"/>
+      <c r="A728" s="18"/>
     </row>
     <row r="729">
-      <c r="A729" s="20"/>
+      <c r="A729" s="18"/>
     </row>
     <row r="730">
-      <c r="A730" s="20"/>
+      <c r="A730" s="18"/>
     </row>
     <row r="731">
-      <c r="A731" s="20"/>
+      <c r="A731" s="18"/>
     </row>
     <row r="732">
-      <c r="A732" s="20"/>
+      <c r="A732" s="18"/>
     </row>
     <row r="733">
-      <c r="A733" s="20"/>
+      <c r="A733" s="18"/>
     </row>
     <row r="734">
-      <c r="A734" s="20"/>
+      <c r="A734" s="18"/>
     </row>
     <row r="735">
-      <c r="A735" s="20"/>
+      <c r="A735" s="18"/>
     </row>
     <row r="736">
-      <c r="A736" s="20"/>
+      <c r="A736" s="18"/>
     </row>
     <row r="737">
-      <c r="A737" s="20"/>
+      <c r="A737" s="18"/>
     </row>
     <row r="738">
-      <c r="A738" s="20"/>
+      <c r="A738" s="18"/>
     </row>
     <row r="739">
-      <c r="A739" s="20"/>
+      <c r="A739" s="18"/>
     </row>
     <row r="740">
-      <c r="A740" s="20"/>
+      <c r="A740" s="18"/>
     </row>
     <row r="741">
-      <c r="A741" s="20"/>
+      <c r="A741" s="18"/>
     </row>
     <row r="742">
-      <c r="A742" s="20"/>
+      <c r="A742" s="18"/>
     </row>
     <row r="743">
-      <c r="A743" s="20"/>
+      <c r="A743" s="18"/>
     </row>
     <row r="744">
-      <c r="A744" s="20"/>
+      <c r="A744" s="18"/>
     </row>
     <row r="745">
-      <c r="A745" s="20"/>
+      <c r="A745" s="18"/>
     </row>
     <row r="746">
-      <c r="A746" s="20"/>
+      <c r="A746" s="18"/>
     </row>
     <row r="747">
-      <c r="A747" s="20"/>
+      <c r="A747" s="18"/>
     </row>
     <row r="748">
-      <c r="A748" s="20"/>
+      <c r="A748" s="18"/>
     </row>
     <row r="749">
-      <c r="A749" s="20"/>
+      <c r="A749" s="18"/>
     </row>
     <row r="750">
-      <c r="A750" s="20"/>
+      <c r="A750" s="18"/>
     </row>
     <row r="751">
-      <c r="A751" s="20"/>
+      <c r="A751" s="18"/>
     </row>
     <row r="752">
-      <c r="A752" s="20"/>
+      <c r="A752" s="18"/>
     </row>
     <row r="753">
-      <c r="A753" s="20"/>
+      <c r="A753" s="18"/>
     </row>
     <row r="754">
-      <c r="A754" s="20"/>
+      <c r="A754" s="18"/>
     </row>
     <row r="755">
-      <c r="A755" s="20"/>
+      <c r="A755" s="18"/>
     </row>
     <row r="756">
-      <c r="A756" s="20"/>
+      <c r="A756" s="18"/>
     </row>
     <row r="757">
-      <c r="A757" s="20"/>
+      <c r="A757" s="18"/>
     </row>
     <row r="758">
-      <c r="A758" s="20"/>
+      <c r="A758" s="18"/>
     </row>
     <row r="759">
-      <c r="A759" s="20"/>
+      <c r="A759" s="18"/>
     </row>
     <row r="760">
-      <c r="A760" s="20"/>
+      <c r="A760" s="18"/>
     </row>
     <row r="761">
-      <c r="A761" s="20"/>
+      <c r="A761" s="18"/>
     </row>
     <row r="762">
-      <c r="A762" s="20"/>
+      <c r="A762" s="18"/>
     </row>
     <row r="763">
-      <c r="A763" s="20"/>
+      <c r="A763" s="18"/>
     </row>
     <row r="764">
-      <c r="A764" s="20"/>
+      <c r="A764" s="18"/>
     </row>
     <row r="765">
-      <c r="A765" s="20"/>
+      <c r="A765" s="18"/>
     </row>
     <row r="766">
-      <c r="A766" s="20"/>
+      <c r="A766" s="18"/>
     </row>
     <row r="767">
-      <c r="A767" s="20"/>
+      <c r="A767" s="18"/>
     </row>
     <row r="768">
-      <c r="A768" s="20"/>
+      <c r="A768" s="18"/>
     </row>
     <row r="769">
-      <c r="A769" s="20"/>
+      <c r="A769" s="18"/>
     </row>
     <row r="770">
-      <c r="A770" s="20"/>
+      <c r="A770" s="18"/>
     </row>
     <row r="771">
-      <c r="A771" s="20"/>
+      <c r="A771" s="18"/>
     </row>
     <row r="772">
-      <c r="A772" s="20"/>
+      <c r="A772" s="18"/>
     </row>
     <row r="773">
-      <c r="A773" s="20"/>
+      <c r="A773" s="18"/>
     </row>
     <row r="774">
-      <c r="A774" s="20"/>
+      <c r="A774" s="18"/>
     </row>
     <row r="775">
-      <c r="A775" s="20"/>
+      <c r="A775" s="18"/>
     </row>
     <row r="776">
-      <c r="A776" s="20"/>
+      <c r="A776" s="18"/>
     </row>
     <row r="777">
-      <c r="A777" s="20"/>
+      <c r="A777" s="18"/>
     </row>
     <row r="778">
-      <c r="A778" s="20"/>
+      <c r="A778" s="18"/>
     </row>
     <row r="779">
-      <c r="A779" s="20"/>
+      <c r="A779" s="18"/>
     </row>
     <row r="780">
-      <c r="A780" s="20"/>
+      <c r="A780" s="18"/>
     </row>
     <row r="781">
-      <c r="A781" s="20"/>
+      <c r="A781" s="18"/>
     </row>
     <row r="782">
-      <c r="A782" s="20"/>
+      <c r="A782" s="18"/>
     </row>
     <row r="783">
-      <c r="A783" s="20"/>
+      <c r="A783" s="18"/>
     </row>
     <row r="784">
-      <c r="A784" s="20"/>
+      <c r="A784" s="18"/>
     </row>
     <row r="785">
-      <c r="A785" s="20"/>
+      <c r="A785" s="18"/>
     </row>
     <row r="786">
-      <c r="A786" s="20"/>
+      <c r="A786" s="18"/>
     </row>
     <row r="787">
-      <c r="A787" s="20"/>
+      <c r="A787" s="18"/>
     </row>
     <row r="788">
-      <c r="A788" s="20"/>
+      <c r="A788" s="18"/>
     </row>
     <row r="789">
-      <c r="A789" s="20"/>
+      <c r="A789" s="18"/>
     </row>
     <row r="790">
-      <c r="A790" s="20"/>
+      <c r="A790" s="18"/>
     </row>
     <row r="791">
-      <c r="A791" s="20"/>
+      <c r="A791" s="18"/>
     </row>
     <row r="792">
-      <c r="A792" s="20"/>
+      <c r="A792" s="18"/>
     </row>
     <row r="793">
-      <c r="A793" s="20"/>
+      <c r="A793" s="18"/>
     </row>
     <row r="794">
-      <c r="A794" s="20"/>
+      <c r="A794" s="18"/>
     </row>
     <row r="795">
-      <c r="A795" s="20"/>
+      <c r="A795" s="18"/>
     </row>
     <row r="796">
-      <c r="A796" s="20"/>
+      <c r="A796" s="18"/>
     </row>
     <row r="797">
-      <c r="A797" s="20"/>
+      <c r="A797" s="18"/>
     </row>
     <row r="798">
-      <c r="A798" s="20"/>
+      <c r="A798" s="18"/>
     </row>
     <row r="799">
-      <c r="A799" s="20"/>
+      <c r="A799" s="18"/>
     </row>
     <row r="800">
-      <c r="A800" s="20"/>
+      <c r="A800" s="18"/>
     </row>
     <row r="801">
-      <c r="A801" s="20"/>
+      <c r="A801" s="18"/>
     </row>
     <row r="802">
-      <c r="A802" s="20"/>
+      <c r="A802" s="18"/>
     </row>
     <row r="803">
-      <c r="A803" s="20"/>
+      <c r="A803" s="18"/>
     </row>
     <row r="804">
-      <c r="A804" s="20"/>
+      <c r="A804" s="18"/>
     </row>
     <row r="805">
-      <c r="A805" s="20"/>
+      <c r="A805" s="18"/>
     </row>
     <row r="806">
-      <c r="A806" s="20"/>
+      <c r="A806" s="18"/>
     </row>
     <row r="807">
-      <c r="A807" s="20"/>
+      <c r="A807" s="18"/>
     </row>
     <row r="808">
-      <c r="A808" s="20"/>
+      <c r="A808" s="18"/>
     </row>
     <row r="809">
-      <c r="A809" s="20"/>
+      <c r="A809" s="18"/>
     </row>
     <row r="810">
-      <c r="A810" s="20"/>
+      <c r="A810" s="18"/>
     </row>
     <row r="811">
-      <c r="A811" s="20"/>
+      <c r="A811" s="18"/>
     </row>
     <row r="812">
-      <c r="A812" s="20"/>
+      <c r="A812" s="18"/>
     </row>
     <row r="813">
-      <c r="A813" s="20"/>
+      <c r="A813" s="18"/>
     </row>
     <row r="814">
-      <c r="A814" s="20"/>
+      <c r="A814" s="18"/>
     </row>
     <row r="815">
-      <c r="A815" s="20"/>
+      <c r="A815" s="18"/>
     </row>
     <row r="816">
-      <c r="A816" s="20"/>
+      <c r="A816" s="18"/>
     </row>
     <row r="817">
-      <c r="A817" s="20"/>
+      <c r="A817" s="18"/>
     </row>
     <row r="818">
-      <c r="A818" s="20"/>
+      <c r="A818" s="18"/>
     </row>
     <row r="819">
-      <c r="A819" s="20"/>
+      <c r="A819" s="18"/>
     </row>
     <row r="820">
-      <c r="A820" s="20"/>
+      <c r="A820" s="18"/>
     </row>
     <row r="821">
-      <c r="A821" s="20"/>
+      <c r="A821" s="18"/>
     </row>
     <row r="822">
-      <c r="A822" s="20"/>
+      <c r="A822" s="18"/>
     </row>
     <row r="823">
-      <c r="A823" s="20"/>
+      <c r="A823" s="18"/>
     </row>
     <row r="824">
-      <c r="A824" s="20"/>
+      <c r="A824" s="18"/>
     </row>
     <row r="825">
-      <c r="A825" s="20"/>
+      <c r="A825" s="18"/>
     </row>
     <row r="826">
-      <c r="A826" s="20"/>
+      <c r="A826" s="18"/>
     </row>
     <row r="827">
-      <c r="A827" s="20"/>
+      <c r="A827" s="18"/>
     </row>
     <row r="828">
-      <c r="A828" s="20"/>
+      <c r="A828" s="18"/>
     </row>
     <row r="829">
-      <c r="A829" s="20"/>
+      <c r="A829" s="18"/>
     </row>
     <row r="830">
-      <c r="A830" s="20"/>
+      <c r="A830" s="18"/>
     </row>
     <row r="831">
-      <c r="A831" s="20"/>
+      <c r="A831" s="18"/>
     </row>
     <row r="832">
-      <c r="A832" s="20"/>
+      <c r="A832" s="18"/>
     </row>
     <row r="833">
-      <c r="A833" s="20"/>
+      <c r="A833" s="18"/>
     </row>
     <row r="834">
-      <c r="A834" s="20"/>
+      <c r="A834" s="18"/>
     </row>
     <row r="835">
-      <c r="A835" s="20"/>
+      <c r="A835" s="18"/>
     </row>
     <row r="836">
-      <c r="A836" s="20"/>
+      <c r="A836" s="18"/>
     </row>
     <row r="837">
-      <c r="A837" s="20"/>
+      <c r="A837" s="18"/>
     </row>
     <row r="838">
-      <c r="A838" s="20"/>
+      <c r="A838" s="18"/>
     </row>
     <row r="839">
-      <c r="A839" s="20"/>
+      <c r="A839" s="18"/>
     </row>
     <row r="840">
-      <c r="A840" s="20"/>
+      <c r="A840" s="18"/>
     </row>
     <row r="841">
-      <c r="A841" s="20"/>
+      <c r="A841" s="18"/>
     </row>
     <row r="842">
-      <c r="A842" s="20"/>
+      <c r="A842" s="18"/>
     </row>
     <row r="843">
-      <c r="A843" s="20"/>
+      <c r="A843" s="18"/>
     </row>
     <row r="844">
-      <c r="A844" s="20"/>
+      <c r="A844" s="18"/>
     </row>
     <row r="845">
-      <c r="A845" s="20"/>
+      <c r="A845" s="18"/>
     </row>
     <row r="846">
-      <c r="A846" s="20"/>
+      <c r="A846" s="18"/>
     </row>
     <row r="847">
-      <c r="A847" s="20"/>
+      <c r="A847" s="18"/>
     </row>
     <row r="848">
-      <c r="A848" s="20"/>
+      <c r="A848" s="18"/>
     </row>
     <row r="849">
-      <c r="A849" s="20"/>
+      <c r="A849" s="18"/>
     </row>
     <row r="850">
-      <c r="A850" s="20"/>
+      <c r="A850" s="18"/>
     </row>
     <row r="851">
-      <c r="A851" s="20"/>
+      <c r="A851" s="18"/>
     </row>
     <row r="852">
-      <c r="A852" s="20"/>
+      <c r="A852" s="18"/>
     </row>
     <row r="853">
-      <c r="A853" s="20"/>
+      <c r="A853" s="18"/>
     </row>
     <row r="854">
-      <c r="A854" s="20"/>
+      <c r="A854" s="18"/>
     </row>
     <row r="855">
-      <c r="A855" s="20"/>
+      <c r="A855" s="18"/>
     </row>
     <row r="856">
-      <c r="A856" s="20"/>
+      <c r="A856" s="18"/>
     </row>
     <row r="857">
-      <c r="A857" s="20"/>
+      <c r="A857" s="18"/>
     </row>
     <row r="858">
-      <c r="A858" s="20"/>
+      <c r="A858" s="18"/>
     </row>
     <row r="859">
-      <c r="A859" s="20"/>
+      <c r="A859" s="18"/>
     </row>
     <row r="860">
-      <c r="A860" s="20"/>
+      <c r="A860" s="18"/>
     </row>
     <row r="861">
-      <c r="A861" s="20"/>
+      <c r="A861" s="18"/>
     </row>
     <row r="862">
-      <c r="A862" s="20"/>
+      <c r="A862" s="18"/>
     </row>
     <row r="863">
-      <c r="A863" s="20"/>
+      <c r="A863" s="18"/>
     </row>
     <row r="864">
-      <c r="A864" s="20"/>
+      <c r="A864" s="18"/>
     </row>
     <row r="865">
-      <c r="A865" s="20"/>
+      <c r="A865" s="18"/>
     </row>
     <row r="866">
-      <c r="A866" s="20"/>
+      <c r="A866" s="18"/>
     </row>
     <row r="867">
-      <c r="A867" s="20"/>
+      <c r="A867" s="18"/>
     </row>
     <row r="868">
-      <c r="A868" s="20"/>
+      <c r="A868" s="18"/>
     </row>
     <row r="869">
-      <c r="A869" s="20"/>
+      <c r="A869" s="18"/>
     </row>
     <row r="870">
-      <c r="A870" s="20"/>
+      <c r="A870" s="18"/>
     </row>
     <row r="871">
-      <c r="A871" s="20"/>
+      <c r="A871" s="18"/>
     </row>
     <row r="872">
-      <c r="A872" s="20"/>
+      <c r="A872" s="18"/>
     </row>
     <row r="873">
-      <c r="A873" s="20"/>
+      <c r="A873" s="18"/>
     </row>
     <row r="874">
-      <c r="A874" s="20"/>
+      <c r="A874" s="18"/>
     </row>
     <row r="875">
-      <c r="A875" s="20"/>
+      <c r="A875" s="18"/>
     </row>
     <row r="876">
-      <c r="A876" s="20"/>
+      <c r="A876" s="18"/>
     </row>
     <row r="877">
-      <c r="A877" s="20"/>
+      <c r="A877" s="18"/>
     </row>
     <row r="878">
-      <c r="A878" s="20"/>
+      <c r="A878" s="18"/>
     </row>
     <row r="879">
-      <c r="A879" s="20"/>
+      <c r="A879" s="18"/>
     </row>
     <row r="880">
-      <c r="A880" s="20"/>
+      <c r="A880" s="18"/>
     </row>
     <row r="881">
-      <c r="A881" s="20"/>
+      <c r="A881" s="18"/>
     </row>
     <row r="882">
-      <c r="A882" s="20"/>
+      <c r="A882" s="18"/>
     </row>
     <row r="883">
-      <c r="A883" s="20"/>
+      <c r="A883" s="18"/>
     </row>
     <row r="884">
-      <c r="A884" s="20"/>
+      <c r="A884" s="18"/>
     </row>
     <row r="885">
-      <c r="A885" s="20"/>
+      <c r="A885" s="18"/>
     </row>
     <row r="886">
-      <c r="A886" s="20"/>
+      <c r="A886" s="18"/>
     </row>
     <row r="887">
-      <c r="A887" s="20"/>
+      <c r="A887" s="18"/>
     </row>
     <row r="888">
-      <c r="A888" s="20"/>
+      <c r="A888" s="18"/>
     </row>
     <row r="889">
-      <c r="A889" s="20"/>
+      <c r="A889" s="18"/>
     </row>
     <row r="890">
-      <c r="A890" s="20"/>
+      <c r="A890" s="18"/>
     </row>
     <row r="891">
-      <c r="A891" s="20"/>
+      <c r="A891" s="18"/>
     </row>
     <row r="892">
-      <c r="A892" s="20"/>
+      <c r="A892" s="18"/>
     </row>
     <row r="893">
-      <c r="A893" s="20"/>
+      <c r="A893" s="18"/>
     </row>
     <row r="894">
-      <c r="A894" s="20"/>
+      <c r="A894" s="18"/>
     </row>
     <row r="895">
-      <c r="A895" s="20"/>
+      <c r="A895" s="18"/>
     </row>
     <row r="896">
-      <c r="A896" s="20"/>
+      <c r="A896" s="18"/>
     </row>
     <row r="897">
-      <c r="A897" s="20"/>
+      <c r="A897" s="18"/>
     </row>
     <row r="898">
-      <c r="A898" s="20"/>
+      <c r="A898" s="18"/>
     </row>
     <row r="899">
-      <c r="A899" s="20"/>
+      <c r="A899" s="18"/>
     </row>
     <row r="900">
-      <c r="A900" s="20"/>
+      <c r="A900" s="18"/>
     </row>
     <row r="901">
-      <c r="A901" s="20"/>
+      <c r="A901" s="18"/>
     </row>
     <row r="902">
-      <c r="A902" s="20"/>
+      <c r="A902" s="18"/>
     </row>
     <row r="903">
-      <c r="A903" s="20"/>
+      <c r="A903" s="18"/>
     </row>
     <row r="904">
-      <c r="A904" s="20"/>
+      <c r="A904" s="18"/>
     </row>
     <row r="905">
-      <c r="A905" s="20"/>
+      <c r="A905" s="18"/>
     </row>
     <row r="906">
-      <c r="A906" s="20"/>
+      <c r="A906" s="18"/>
     </row>
     <row r="907">
-      <c r="A907" s="20"/>
+      <c r="A907" s="18"/>
     </row>
     <row r="908">
-      <c r="A908" s="20"/>
+      <c r="A908" s="18"/>
     </row>
     <row r="909">
-      <c r="A909" s="20"/>
+      <c r="A909" s="18"/>
     </row>
     <row r="910">
-      <c r="A910" s="20"/>
+      <c r="A910" s="18"/>
     </row>
     <row r="911">
-      <c r="A911" s="20"/>
+      <c r="A911" s="18"/>
     </row>
     <row r="912">
-      <c r="A912" s="20"/>
+      <c r="A912" s="18"/>
     </row>
     <row r="913">
-      <c r="A913" s="20"/>
+      <c r="A913" s="18"/>
     </row>
     <row r="914">
-      <c r="A914" s="20"/>
+      <c r="A914" s="18"/>
     </row>
     <row r="915">
-      <c r="A915" s="20"/>
+      <c r="A915" s="18"/>
     </row>
     <row r="916">
-      <c r="A916" s="20"/>
+      <c r="A916" s="18"/>
     </row>
     <row r="917">
-      <c r="A917" s="20"/>
+      <c r="A917" s="18"/>
     </row>
     <row r="918">
-      <c r="A918" s="20"/>
+      <c r="A918" s="18"/>
     </row>
     <row r="919">
-      <c r="A919" s="20"/>
+      <c r="A919" s="18"/>
     </row>
     <row r="920">
-      <c r="A920" s="20"/>
+      <c r="A920" s="18"/>
     </row>
     <row r="921">
-      <c r="A921" s="20"/>
+      <c r="A921" s="18"/>
     </row>
     <row r="922">
-      <c r="A922" s="20"/>
+      <c r="A922" s="18"/>
     </row>
     <row r="923">
-      <c r="A923" s="20"/>
+      <c r="A923" s="18"/>
     </row>
     <row r="924">
-      <c r="A924" s="20"/>
+      <c r="A924" s="18"/>
     </row>
     <row r="925">
-      <c r="A925" s="20"/>
+      <c r="A925" s="18"/>
     </row>
     <row r="926">
-      <c r="A926" s="20"/>
+      <c r="A926" s="18"/>
     </row>
     <row r="927">
-      <c r="A927" s="20"/>
+      <c r="A927" s="18"/>
     </row>
     <row r="928">
-      <c r="A928" s="20"/>
+      <c r="A928" s="18"/>
     </row>
     <row r="929">
-      <c r="A929" s="20"/>
+      <c r="A929" s="18"/>
     </row>
     <row r="930">
-      <c r="A930" s="20"/>
+      <c r="A930" s="18"/>
     </row>
     <row r="931">
-      <c r="A931" s="20"/>
+      <c r="A931" s="18"/>
     </row>
     <row r="932">
-      <c r="A932" s="20"/>
+      <c r="A932" s="18"/>
     </row>
     <row r="933">
-      <c r="A933" s="20"/>
+      <c r="A933" s="18"/>
     </row>
     <row r="934">
-      <c r="A934" s="20"/>
+      <c r="A934" s="18"/>
     </row>
     <row r="935">
-      <c r="A935" s="20"/>
+      <c r="A935" s="18"/>
     </row>
     <row r="936">
-      <c r="A936" s="20"/>
+      <c r="A936" s="18"/>
     </row>
     <row r="937">
-      <c r="A937" s="20"/>
+      <c r="A937" s="18"/>
     </row>
     <row r="938">
-      <c r="A938" s="20"/>
+      <c r="A938" s="18"/>
     </row>
     <row r="939">
-      <c r="A939" s="20"/>
+      <c r="A939" s="18"/>
     </row>
     <row r="940">
-      <c r="A940" s="20"/>
+      <c r="A940" s="18"/>
     </row>
     <row r="941">
-      <c r="A941" s="20"/>
+      <c r="A941" s="18"/>
     </row>
     <row r="942">
-      <c r="A942" s="20"/>
+      <c r="A942" s="18"/>
     </row>
     <row r="943">
-      <c r="A943" s="20"/>
+      <c r="A943" s="18"/>
     </row>
     <row r="944">
-      <c r="A944" s="20"/>
+      <c r="A944" s="18"/>
     </row>
     <row r="945">
-      <c r="A945" s="20"/>
+      <c r="A945" s="18"/>
     </row>
     <row r="946">
-      <c r="A946" s="20"/>
+      <c r="A946" s="18"/>
     </row>
     <row r="947">
-      <c r="A947" s="20"/>
+      <c r="A947" s="18"/>
     </row>
     <row r="948">
-      <c r="A948" s="20"/>
+      <c r="A948" s="18"/>
     </row>
     <row r="949">
-      <c r="A949" s="20"/>
+      <c r="A949" s="18"/>
     </row>
     <row r="950">
-      <c r="A950" s="20"/>
+      <c r="A950" s="18"/>
     </row>
     <row r="951">
-      <c r="A951" s="20"/>
+      <c r="A951" s="18"/>
     </row>
     <row r="952">
-      <c r="A952" s="20"/>
+      <c r="A952" s="18"/>
     </row>
     <row r="953">
-      <c r="A953" s="20"/>
+      <c r="A953" s="18"/>
     </row>
     <row r="954">
-      <c r="A954" s="20"/>
+      <c r="A954" s="18"/>
     </row>
     <row r="955">
-      <c r="A955" s="20"/>
+      <c r="A955" s="18"/>
     </row>
     <row r="956">
-      <c r="A956" s="20"/>
+      <c r="A956" s="18"/>
     </row>
     <row r="957">
-      <c r="A957" s="20"/>
+      <c r="A957" s="18"/>
     </row>
     <row r="958">
-      <c r="A958" s="20"/>
+      <c r="A958" s="18"/>
     </row>
     <row r="959">
-      <c r="A959" s="20"/>
+      <c r="A959" s="18"/>
     </row>
     <row r="960">
-      <c r="A960" s="20"/>
+      <c r="A960" s="18"/>
     </row>
     <row r="961">
-      <c r="A961" s="20"/>
+      <c r="A961" s="18"/>
     </row>
     <row r="962">
-      <c r="A962" s="20"/>
+      <c r="A962" s="18"/>
     </row>
     <row r="963">
-      <c r="A963" s="20"/>
+      <c r="A963" s="18"/>
     </row>
     <row r="964">
-      <c r="A964" s="20"/>
+      <c r="A964" s="18"/>
     </row>
     <row r="965">
-      <c r="A965" s="20"/>
+      <c r="A965" s="18"/>
     </row>
     <row r="966">
-      <c r="A966" s="20"/>
+      <c r="A966" s="18"/>
     </row>
     <row r="967">
-      <c r="A967" s="20"/>
+      <c r="A967" s="18"/>
     </row>
     <row r="968">
-      <c r="A968" s="20"/>
+      <c r="A968" s="18"/>
     </row>
     <row r="969">
-      <c r="A969" s="20"/>
+      <c r="A969" s="18"/>
     </row>
     <row r="970">
-      <c r="A970" s="20"/>
+      <c r="A970" s="18"/>
     </row>
     <row r="971">
-      <c r="A971" s="20"/>
+      <c r="A971" s="18"/>
     </row>
     <row r="972">
-      <c r="A972" s="20"/>
+      <c r="A972" s="18"/>
     </row>
     <row r="973">
-      <c r="A973" s="20"/>
+      <c r="A973" s="18"/>
     </row>
     <row r="974">
-      <c r="A974" s="20"/>
+      <c r="A974" s="18"/>
     </row>
     <row r="975">
-      <c r="A975" s="20"/>
+      <c r="A975" s="18"/>
     </row>
     <row r="976">
-      <c r="A976" s="20"/>
+      <c r="A976" s="18"/>
     </row>
     <row r="977">
-      <c r="A977" s="20"/>
+      <c r="A977" s="18"/>
     </row>
     <row r="978">
-      <c r="A978" s="20"/>
+      <c r="A978" s="18"/>
     </row>
     <row r="979">
-      <c r="A979" s="20"/>
+      <c r="A979" s="18"/>
     </row>
     <row r="980">
-      <c r="A980" s="20"/>
+      <c r="A980" s="18"/>
     </row>
     <row r="981">
-      <c r="A981" s="20"/>
+      <c r="A981" s="18"/>
     </row>
     <row r="982">
-      <c r="A982" s="20"/>
+      <c r="A982" s="18"/>
     </row>
     <row r="983">
-      <c r="A983" s="20"/>
+      <c r="A983" s="18"/>
     </row>
     <row r="984">
-      <c r="A984" s="20"/>
+      <c r="A984" s="18"/>
     </row>
     <row r="985">
-      <c r="A985" s="20"/>
+      <c r="A985" s="18"/>
     </row>
     <row r="986">
-      <c r="A986" s="20"/>
+      <c r="A986" s="18"/>
     </row>
     <row r="987">
-      <c r="A987" s="20"/>
+      <c r="A987" s="18"/>
     </row>
     <row r="988">
-      <c r="A988" s="20"/>
+      <c r="A988" s="18"/>
     </row>
     <row r="989">
-      <c r="A989" s="20"/>
+      <c r="A989" s="18"/>
     </row>
     <row r="990">
-      <c r="A990" s="20"/>
+      <c r="A990" s="18"/>
     </row>
     <row r="991">
-      <c r="A991" s="20"/>
+      <c r="A991" s="18"/>
     </row>
     <row r="992">
-      <c r="A992" s="20"/>
+      <c r="A992" s="18"/>
     </row>
     <row r="993">
-      <c r="A993" s="20"/>
+      <c r="A993" s="18"/>
     </row>
     <row r="994">
-      <c r="A994" s="20"/>
+      <c r="A994" s="18"/>
     </row>
     <row r="995">
-      <c r="A995" s="20"/>
+      <c r="A995" s="18"/>
     </row>
     <row r="996">
-      <c r="A996" s="20"/>
+      <c r="A996" s="18"/>
     </row>
     <row r="997">
-      <c r="A997" s="20"/>
+      <c r="A997" s="18"/>
     </row>
     <row r="998">
-      <c r="A998" s="20"/>
+      <c r="A998" s="18"/>
     </row>
     <row r="999">
-      <c r="A999" s="20"/>
+      <c r="A999" s="18"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="20"/>
+      <c r="A1000" s="18"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="20"/>
+      <c r="A1001" s="18"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="20"/>
+      <c r="A1002" s="18"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="20"/>
+      <c r="A1003" s="18"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="20"/>
+      <c r="A1004" s="18"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="20"/>
+      <c r="A1005" s="18"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="20"/>
+      <c r="A1006" s="18"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="20"/>
+      <c r="A1007" s="18"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="20"/>
+      <c r="A1008" s="18"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="20"/>
+      <c r="A1009" s="18"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="20"/>
+      <c r="A1010" s="18"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="20"/>
+      <c r="A1011" s="18"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="20"/>
+      <c r="A1012" s="18"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="20"/>
+      <c r="A1013" s="18"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C103">
+  <conditionalFormatting sqref="C3:C104">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Select">
       <formula>NOT(ISERROR(SEARCH(("Select"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C3:C103">
+    <dataValidation type="list" allowBlank="1" sqref="C3:C104">
       <formula1>Functions!$A$1:$A$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5108,90 +5098,85 @@
     <hyperlink r:id="rId3" location="Meta" ref="D4"/>
     <hyperlink r:id="rId4" location="uri" ref="D5"/>
     <hyperlink r:id="rId5" location="code" ref="D6"/>
-    <hyperlink r:id="rId6" ref="E6"/>
-    <hyperlink r:id="rId7" location="Narrative" ref="D7"/>
-    <hyperlink r:id="rId8" ref="D8"/>
-    <hyperlink r:id="rId9" location="Extension" ref="D11"/>
-    <hyperlink r:id="rId10" location="identifier" ref="D12"/>
-    <hyperlink r:id="rId11" location="code" ref="D13"/>
-    <hyperlink r:id="rId12" location="codeableconcept" ref="D14"/>
-    <hyperlink r:id="rId13" ref="E14"/>
-    <hyperlink r:id="rId14" location="coding" ref="D15"/>
-    <hyperlink r:id="rId15" location="uri" ref="D16"/>
-    <hyperlink r:id="rId16" location="string" ref="D17"/>
-    <hyperlink r:id="rId17" location="code" ref="D18"/>
-    <hyperlink r:id="rId18" location="string" ref="D19"/>
-    <hyperlink r:id="rId19" location="boolean" ref="D20"/>
-    <hyperlink r:id="rId20" location="string" ref="D21"/>
-    <hyperlink r:id="rId21" location="uri" ref="D22"/>
-    <hyperlink r:id="rId22" location="string" ref="D23"/>
-    <hyperlink r:id="rId23" location="period" ref="D24"/>
-    <hyperlink r:id="rId24" location="datetime" ref="D25"/>
-    <hyperlink r:id="rId25" location="datetime" ref="D26"/>
-    <hyperlink r:id="rId26" location="string" ref="D29"/>
-    <hyperlink r:id="rId27" location="identifier" ref="D30"/>
-    <hyperlink r:id="rId28" location="string" ref="D31"/>
-    <hyperlink r:id="rId29" location="code" ref="D32"/>
-    <hyperlink r:id="rId30" location="code" ref="D33"/>
-    <hyperlink r:id="rId31" location="string" ref="D34"/>
-    <hyperlink r:id="rId32" location="codeableconcept" ref="D35"/>
-    <hyperlink r:id="rId33" ref="E35"/>
-    <hyperlink r:id="rId34" location="coding" ref="D36"/>
-    <hyperlink r:id="rId35" location="uri" ref="D37"/>
-    <hyperlink r:id="rId36" location="string" ref="D38"/>
-    <hyperlink r:id="rId37" location="code" ref="D39"/>
-    <hyperlink r:id="rId38" location="string" ref="D40"/>
-    <hyperlink r:id="rId39" location="boolean" ref="D41"/>
-    <hyperlink r:id="rId40" location="string" ref="D42"/>
-    <hyperlink r:id="rId41" location="string" ref="D48"/>
-    <hyperlink r:id="rId42" location="identifier" ref="D49"/>
-    <hyperlink r:id="rId43" location="string" ref="D50"/>
-    <hyperlink r:id="rId44" location="string" ref="D53"/>
-    <hyperlink r:id="rId45" location="identifier" ref="D54"/>
-    <hyperlink r:id="rId46" location="string" ref="D55"/>
-    <hyperlink r:id="rId47" location="datetime" ref="D56"/>
-    <hyperlink r:id="rId48" location="string" ref="D61"/>
-    <hyperlink r:id="rId49" location="identifier" ref="D62"/>
-    <hyperlink r:id="rId50" location="string" ref="D63"/>
-    <hyperlink r:id="rId51" location="codeableconcept" ref="D64"/>
-    <hyperlink r:id="rId52" ref="E64"/>
-    <hyperlink r:id="rId53" location="coding" ref="D65"/>
-    <hyperlink r:id="rId54" location="uri" ref="D66"/>
-    <hyperlink r:id="rId55" location="string" ref="D67"/>
-    <hyperlink r:id="rId56" location="code" ref="D68"/>
-    <hyperlink r:id="rId57" location="string" ref="D69"/>
-    <hyperlink r:id="rId58" location="boolean" ref="D70"/>
-    <hyperlink r:id="rId59" location="string" ref="D71"/>
-    <hyperlink r:id="rId60" location="annotation" ref="D72"/>
-    <hyperlink r:id="rId61" location="datetime" ref="D77"/>
-    <hyperlink r:id="rId62" location="string" ref="D78"/>
-    <hyperlink r:id="rId63" ref="D79"/>
-    <hyperlink r:id="rId64" location="Extension" ref="D80"/>
-    <hyperlink r:id="rId65" location="codeableconcept" ref="D81"/>
-    <hyperlink r:id="rId66" ref="E81"/>
-    <hyperlink r:id="rId67" location="coding" ref="D82"/>
-    <hyperlink r:id="rId68" location="uri" ref="D83"/>
-    <hyperlink r:id="rId69" location="string" ref="D84"/>
-    <hyperlink r:id="rId70" location="code" ref="D85"/>
-    <hyperlink r:id="rId71" location="string" ref="D86"/>
-    <hyperlink r:id="rId72" location="boolean" ref="D87"/>
-    <hyperlink r:id="rId73" location="string" ref="D88"/>
-    <hyperlink r:id="rId74" location="boolean" ref="D89"/>
-    <hyperlink r:id="rId75" location="datetime" ref="D90"/>
-    <hyperlink r:id="rId76" location="string" ref="D93"/>
-    <hyperlink r:id="rId77" location="identifier" ref="D94"/>
-    <hyperlink r:id="rId78" location="string" ref="D95"/>
-    <hyperlink r:id="rId79" location="codeableconcept" ref="D96"/>
-    <hyperlink r:id="rId80" ref="E96"/>
-    <hyperlink r:id="rId81" location="coding" ref="D97"/>
-    <hyperlink r:id="rId82" location="uri" ref="D98"/>
-    <hyperlink r:id="rId83" location="string" ref="D99"/>
-    <hyperlink r:id="rId84" location="code" ref="D100"/>
-    <hyperlink r:id="rId85" location="string" ref="D101"/>
-    <hyperlink r:id="rId86" location="boolean" ref="D102"/>
-    <hyperlink r:id="rId87" location="string" ref="D103"/>
+    <hyperlink r:id="rId6" location="Narrative" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" location="Extension" ref="D11"/>
+    <hyperlink r:id="rId9" location="identifier" ref="D12"/>
+    <hyperlink r:id="rId10" location="code" ref="D13"/>
+    <hyperlink r:id="rId11" location="codeableconcept" ref="D14"/>
+    <hyperlink r:id="rId12" location="coding" ref="D15"/>
+    <hyperlink r:id="rId13" location="uri" ref="D16"/>
+    <hyperlink r:id="rId14" location="string" ref="D17"/>
+    <hyperlink r:id="rId15" location="code" ref="D18"/>
+    <hyperlink r:id="rId16" location="string" ref="D19"/>
+    <hyperlink r:id="rId17" location="boolean" ref="D20"/>
+    <hyperlink r:id="rId18" location="string" ref="D21"/>
+    <hyperlink r:id="rId19" location="uri" ref="D22"/>
+    <hyperlink r:id="rId20" location="string" ref="D23"/>
+    <hyperlink r:id="rId21" location="period" ref="D24"/>
+    <hyperlink r:id="rId22" location="datetime" ref="D25"/>
+    <hyperlink r:id="rId23" location="datetime" ref="D26"/>
+    <hyperlink r:id="rId24" location="string" ref="D29"/>
+    <hyperlink r:id="rId25" location="identifier" ref="D30"/>
+    <hyperlink r:id="rId26" location="string" ref="D31"/>
+    <hyperlink r:id="rId27" location="code" ref="D32"/>
+    <hyperlink r:id="rId28" location="code" ref="D33"/>
+    <hyperlink r:id="rId29" location="string" ref="D34"/>
+    <hyperlink r:id="rId30" location="codeableconcept" ref="D35"/>
+    <hyperlink r:id="rId31" location="coding" ref="D36"/>
+    <hyperlink r:id="rId32" location="uri" ref="D37"/>
+    <hyperlink r:id="rId33" location="string" ref="D38"/>
+    <hyperlink r:id="rId34" location="code" ref="D39"/>
+    <hyperlink r:id="rId35" location="string" ref="D40"/>
+    <hyperlink r:id="rId36" location="boolean" ref="D41"/>
+    <hyperlink r:id="rId37" location="string" ref="D42"/>
+    <hyperlink r:id="rId38" location="string" ref="D48"/>
+    <hyperlink r:id="rId39" location="identifier" ref="D49"/>
+    <hyperlink r:id="rId40" location="string" ref="D50"/>
+    <hyperlink r:id="rId41" location="string" ref="D53"/>
+    <hyperlink r:id="rId42" location="identifier" ref="D54"/>
+    <hyperlink r:id="rId43" location="string" ref="D55"/>
+    <hyperlink r:id="rId44" location="datetime" ref="D56"/>
+    <hyperlink r:id="rId45" location="string" ref="D61"/>
+    <hyperlink r:id="rId46" location="identifier" ref="D62"/>
+    <hyperlink r:id="rId47" location="string" ref="D63"/>
+    <hyperlink r:id="rId48" location="codeableconcept" ref="D64"/>
+    <hyperlink r:id="rId49" location="coding" ref="D65"/>
+    <hyperlink r:id="rId50" location="uri" ref="D66"/>
+    <hyperlink r:id="rId51" location="string" ref="D67"/>
+    <hyperlink r:id="rId52" location="code" ref="D68"/>
+    <hyperlink r:id="rId53" location="string" ref="D69"/>
+    <hyperlink r:id="rId54" location="boolean" ref="D70"/>
+    <hyperlink r:id="rId55" location="string" ref="D71"/>
+    <hyperlink r:id="rId56" location="annotation" ref="D72"/>
+    <hyperlink r:id="rId57" location="string" ref="D77"/>
+    <hyperlink r:id="rId58" location="datetime" ref="D78"/>
+    <hyperlink r:id="rId59" location="string" ref="D79"/>
+    <hyperlink r:id="rId60" ref="D80"/>
+    <hyperlink r:id="rId61" location="Extension" ref="D81"/>
+    <hyperlink r:id="rId62" location="codeableconcept" ref="D82"/>
+    <hyperlink r:id="rId63" location="coding" ref="D83"/>
+    <hyperlink r:id="rId64" location="uri" ref="D84"/>
+    <hyperlink r:id="rId65" location="string" ref="D85"/>
+    <hyperlink r:id="rId66" location="code" ref="D86"/>
+    <hyperlink r:id="rId67" location="string" ref="D87"/>
+    <hyperlink r:id="rId68" location="boolean" ref="D88"/>
+    <hyperlink r:id="rId69" location="string" ref="D89"/>
+    <hyperlink r:id="rId70" location="boolean" ref="D90"/>
+    <hyperlink r:id="rId71" location="datetime" ref="D91"/>
+    <hyperlink r:id="rId72" location="string" ref="D94"/>
+    <hyperlink r:id="rId73" location="identifier" ref="D95"/>
+    <hyperlink r:id="rId74" location="string" ref="D96"/>
+    <hyperlink r:id="rId75" location="codeableconcept" ref="D97"/>
+    <hyperlink r:id="rId76" location="coding" ref="D98"/>
+    <hyperlink r:id="rId77" location="uri" ref="D99"/>
+    <hyperlink r:id="rId78" location="string" ref="D100"/>
+    <hyperlink r:id="rId79" location="code" ref="D101"/>
+    <hyperlink r:id="rId80" location="string" ref="D102"/>
+    <hyperlink r:id="rId81" location="boolean" ref="D103"/>
+    <hyperlink r:id="rId82" location="string" ref="D104"/>
   </hyperlinks>
-  <drawing r:id="rId88"/>
+  <drawing r:id="rId83"/>
 </worksheet>
 </file>
 
@@ -5206,28 +5191,28 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
